--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3264,155 +3264,6 @@
   </si>
   <si>
     <r>
-      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
-Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
-"VCN name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  VCN names should be unique and are case-sensitie across sheets.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DNS Label"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  Default value is "VCN Name" truncated to 15 chars (when left empty).If specified as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'n'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, DNS will not be enabled for the VCN.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Valid Values for columns E,F,G,H,I - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y|n|&lt;component_name&gt; i.e. specify 'n' when a component(like IGW) is 
-                                                                    not required to be configured(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHXHub-VCN in sample data), 
-                                                                 - specify name of the component- component will be configured with the
-                                                                    mentioned name(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHX-DRG for the DRG in PHXHub-VCN) ,
-                                                                 - specify 'y' if component needs to be configured with default name i.e. 
-                                                                    &lt;vcnname&gt;_ngw(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHXNonProd-VCN_ngw)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -7125,6 +6976,177 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
+Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
+"VCN name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  VCN names should be unique and are case-sensitie across sheets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"CIDR Blocks" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Enter comma seperated CIDRs to have multiple CIDR blocks attached to VCN.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DNS Label"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  Default value is "VCN Name" truncated to 15 chars (when left empty).If specified as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'n'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, DNS will not be enabled for the VCN.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Valid Values for columns E,F,G,H,I - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y|n|&lt;component_name&gt; i.e. specify 'n' when a component(like IGW) is 
+                                                                    not required to be configured(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHXHub-VCN in sample data), 
+                                                                 - specify name of the component- component will be configured with the
+                                                                    mentioned name(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHX-DRG for the DRG in PHXHub-VCN) ,
+                                                                 - specify 'y' if component needs to be configured with default name i.e. 
+                                                                    &lt;vcnname&gt;_ngw(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHXNonProd-VCN_ngw)
 </t>
     </r>
   </si>
@@ -11488,7 +11510,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11499,7 +11521,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -11625,10 +11647,10 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>51</v>
@@ -11637,16 +11659,16 @@
         <v>52</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>23</v>
@@ -11679,28 +11701,28 @@
         <v>366</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>23</v>
@@ -11733,13 +11755,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>52</v>
@@ -11751,10 +11773,10 @@
         <v>36</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>23</v>
@@ -11787,10 +11809,10 @@
         <v>366</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>56</v>
@@ -11805,10 +11827,10 @@
         <v>36</v>
       </c>
       <c r="I6" s="40" t="s">
+        <v>754</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>755</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>756</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>23</v>
@@ -11841,13 +11863,13 @@
         <v>366</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D7" s="40" t="s">
+        <v>756</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>757</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>758</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>52</v>
@@ -11859,10 +11881,10 @@
         <v>36</v>
       </c>
       <c r="I7" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>759</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>760</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>23</v>
@@ -11895,13 +11917,13 @@
         <v>366</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>760</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>761</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>762</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>52</v>
@@ -11913,10 +11935,10 @@
         <v>36</v>
       </c>
       <c r="I8" s="40" t="s">
+        <v>762</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>763</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>764</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>23</v>
@@ -11949,10 +11971,10 @@
         <v>366</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>393</v>
@@ -11961,16 +11983,16 @@
         <v>52</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>766</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>767</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>23</v>
@@ -12003,10 +12025,10 @@
         <v>366</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>394</v>
@@ -12021,10 +12043,10 @@
         <v>36</v>
       </c>
       <c r="I10" s="40" t="s">
+        <v>768</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>769</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>770</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>23</v>
@@ -12057,10 +12079,10 @@
         <v>366</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>397</v>
@@ -12075,10 +12097,10 @@
         <v>36</v>
       </c>
       <c r="I11" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>772</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>773</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>23</v>
@@ -12111,13 +12133,13 @@
         <v>366</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D12" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>774</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>775</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>52</v>
@@ -12129,10 +12151,10 @@
         <v>36</v>
       </c>
       <c r="I12" s="40" t="s">
+        <v>775</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>776</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>777</v>
       </c>
       <c r="K12" s="40" t="s">
         <v>23</v>
@@ -17414,7 +17436,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -17434,25 +17456,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>831</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>832</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>444</v>
@@ -17467,23 +17489,23 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
@@ -19380,13 +19402,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>778</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>779</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>401</v>
@@ -19400,7 +19422,7 @@
         <v>402</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -19413,7 +19435,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -19426,13 +19448,13 @@
         <v>366</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>401</v>
@@ -19441,7 +19463,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>29</v>
@@ -19459,7 +19481,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -19472,13 +19494,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>401</v>
@@ -19487,10 +19509,10 @@
         <v>80</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -19505,7 +19527,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -19518,13 +19540,13 @@
         <v>366</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>401</v>
@@ -19538,7 +19560,7 @@
         <v>402</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -19551,7 +19573,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -19564,13 +19586,13 @@
         <v>366</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>401</v>
@@ -19579,10 +19601,10 @@
         <v>80</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -19597,7 +19619,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -19610,13 +19632,13 @@
         <v>366</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>401</v>
@@ -19625,10 +19647,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -19643,7 +19665,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -19656,13 +19678,13 @@
         <v>366</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>401</v>
@@ -19676,7 +19698,7 @@
         <v>402</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -19689,7 +19711,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -19702,13 +19724,13 @@
         <v>366</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>401</v>
@@ -19719,10 +19741,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>793</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>794</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>795</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -19735,7 +19757,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -19748,13 +19770,13 @@
         <v>366</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>401</v>
@@ -19763,10 +19785,10 @@
         <v>80</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -19781,7 +19803,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -19794,13 +19816,13 @@
         <v>366</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>401</v>
@@ -19809,10 +19831,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -19827,7 +19849,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -19840,13 +19862,13 @@
         <v>366</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>401</v>
@@ -19860,7 +19882,7 @@
         <v>402</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -19873,7 +19895,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -19886,13 +19908,13 @@
         <v>366</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>401</v>
@@ -19903,10 +19925,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>793</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>794</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>795</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -19919,7 +19941,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -19932,13 +19954,13 @@
         <v>366</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>401</v>
@@ -19947,10 +19969,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -19965,7 +19987,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -19978,13 +20000,13 @@
         <v>366</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>401</v>
@@ -19993,10 +20015,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -20011,7 +20033,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -20462,7 +20484,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
       <c r="A1" s="120" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -20472,7 +20494,7 @@
       <c r="G1" s="121"/>
       <c r="H1" s="122"/>
       <c r="I1" s="113" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J1" s="114"/>
       <c r="K1" s="114"/>
@@ -20520,7 +20542,7 @@
         <v>97</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>98</v>
@@ -20567,7 +20589,7 @@
         <v>104</v>
       </c>
       <c r="L3" s="49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M3" s="49" t="s">
         <v>380</v>
@@ -20870,7 +20892,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -20908,7 +20930,7 @@
         <v>97</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>444</v>
@@ -20951,7 +20973,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>380</v>
@@ -21075,7 +21097,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
       <c r="A1" s="123" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -21157,7 +21179,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -21196,7 +21218,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -21221,7 +21243,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>127</v>
@@ -21245,7 +21267,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>129</v>
@@ -21282,7 +21304,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -21315,7 +21337,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>134</v>
@@ -21354,7 +21376,7 @@
         <v>133</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>136</v>
@@ -21391,7 +21413,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -21498,13 +21520,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>893</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>894</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>140</v>
@@ -21776,10 +21798,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>601</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>602</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>418</v>
@@ -21791,10 +21813,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>603</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>604</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>418</v>
@@ -21809,7 +21831,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>418</v>
@@ -21821,10 +21843,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>606</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>607</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>418</v>
@@ -22013,7 +22035,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -22068,7 +22090,7 @@
         <v>163</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L2" s="41" t="s">
         <v>164</v>
@@ -22095,10 +22117,10 @@
         <v>420</v>
       </c>
       <c r="T2" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>481</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -22368,7 +22390,7 @@
       <c r="H1" s="114"/>
       <c r="I1" s="114"/>
       <c r="J1" s="116" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K1" s="127"/>
       <c r="L1" s="127"/>
@@ -22424,7 +22446,7 @@
         <v>191</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>192</v>
@@ -23212,7 +23234,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -23274,10 +23296,10 @@
         <v>420</v>
       </c>
       <c r="O2" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>481</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -23457,7 +23479,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
       <c r="A1" s="132" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -23630,7 +23652,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="55" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -23672,31 +23694,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F2" s="69" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="69" t="s">
+        <v>963</v>
+      </c>
+      <c r="H2" s="69" t="s">
         <v>964</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="I2" s="69" t="s">
         <v>965</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>966</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="K2" s="95" t="s">
         <v>967</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="69" t="s">
         <v>968</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="M2" s="70" t="s">
         <v>969</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>970</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>425</v>
@@ -23714,10 +23736,10 @@
         <v>428</v>
       </c>
       <c r="S2" s="69" t="s">
+        <v>970</v>
+      </c>
+      <c r="T2" s="69" t="s">
         <v>971</v>
-      </c>
-      <c r="T2" s="69" t="s">
-        <v>972</v>
       </c>
       <c r="U2" s="69" t="s">
         <v>96</v>
@@ -23729,10 +23751,10 @@
         <v>332</v>
       </c>
       <c r="X2" s="69" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Y2" s="69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Z2" s="69" t="s">
         <v>444</v>
@@ -23773,16 +23795,16 @@
         <v>325</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="106" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>1007</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>1008</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>349</v>
@@ -23805,7 +23827,7 @@
         <v>338</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O4" s="56" t="s">
         <v>339</v>
@@ -23838,7 +23860,7 @@
         <v>15</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z4" s="40"/>
     </row>
@@ -23847,16 +23869,16 @@
         <v>325</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>352</v>
@@ -23881,7 +23903,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O5" s="56" t="s">
         <v>354</v>
@@ -23902,7 +23924,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V5" s="40" t="s">
         <v>344</v>
@@ -23914,7 +23936,7 @@
         <v>15</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z5" s="40"/>
     </row>
@@ -30064,7 +30086,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -30082,7 +30104,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>85</v>
@@ -30091,10 +30113,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="95" t="s">
+        <v>983</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>984</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>985</v>
       </c>
       <c r="H2" s="98" t="s">
         <v>444</v>
@@ -30117,7 +30139,7 @@
         <v>325</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>432</v>
@@ -30126,7 +30148,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -36177,7 +36199,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -36211,40 +36233,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D2" s="70" t="s">
+        <v>987</v>
+      </c>
+      <c r="E2" s="95" t="s">
         <v>988</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>989</v>
       </c>
       <c r="F2" s="95" t="s">
         <v>356</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="95" t="s">
+        <v>989</v>
+      </c>
+      <c r="K2" s="95" t="s">
         <v>990</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="95" t="s">
         <v>991</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>992</v>
       </c>
       <c r="M2" s="95" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O2" s="102" t="s">
         <v>444</v>
@@ -36282,19 +36304,19 @@
         <v>325</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>432</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G4" s="110">
         <v>4</v>
@@ -36303,7 +36325,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>437</v>
@@ -36318,7 +36340,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="73" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O4" s="76" t="s">
         <v>464</v>
@@ -43170,22 +43192,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="52" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>433</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>358</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>332</v>
@@ -43194,13 +43216,13 @@
         <v>331</v>
       </c>
       <c r="I1" s="97" t="s">
+        <v>967</v>
+      </c>
+      <c r="J1" s="97" t="s">
         <v>968</v>
       </c>
-      <c r="J1" s="97" t="s">
-        <v>969</v>
-      </c>
       <c r="K1" s="62" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -43232,7 +43254,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -43240,7 +43262,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="96" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>435</v>
@@ -43258,16 +43280,16 @@
         <v>429</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I3" s="38">
         <v>40</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -43275,7 +43297,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="96" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>353</v>
@@ -43289,7 +43311,7 @@
       </c>
       <c r="F4" s="40"/>
       <c r="H4" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -43297,7 +43319,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>436</v>
@@ -43308,7 +43330,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="H5" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -43317,7 +43339,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -43325,16 +43347,16 @@
       </c>
       <c r="F6" s="40"/>
       <c r="H6" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="96" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -43342,16 +43364,16 @@
       </c>
       <c r="F7" s="40"/>
       <c r="H7" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="96" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -43359,7 +43381,7 @@
       </c>
       <c r="F8" s="40"/>
       <c r="H8" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -43372,11 +43394,11 @@
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F9" s="40"/>
       <c r="H9" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -43385,32 +43407,32 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F10" s="40"/>
       <c r="H10" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="96" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F11" s="40"/>
       <c r="H11" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -43419,15 +43441,15 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -43436,13 +43458,13 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="H13" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -43451,483 +43473,483 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="H15" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="H16" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" s="40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" s="40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" s="40" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" s="40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" s="40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" s="40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" s="40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" s="40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" s="40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" s="40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" s="40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" s="40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" s="40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" s="40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" s="40" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" s="40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" s="40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" s="40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" s="40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" s="40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" s="40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" s="40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" s="40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" s="40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" s="40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" s="40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" s="40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" s="40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" s="40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" s="40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" s="40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" s="40" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" s="40" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" s="40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" s="40" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" s="40" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" s="40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -43985,91 +44007,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="85" customFormat="1" ht="148" customHeight="1">
       <c r="A1" s="93" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>896</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="C1" s="93" t="s">
         <v>897</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="D1" s="93" t="s">
         <v>898</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>899</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="93" t="s">
         <v>900</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>901</v>
       </c>
       <c r="G1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="93" t="s">
+        <v>901</v>
+      </c>
+      <c r="I1" s="93" t="s">
         <v>902</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="J1" s="93" t="s">
         <v>903</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="K1" s="93" t="s">
         <v>904</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="L1" s="93" t="s">
         <v>905</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="M1" s="93" t="s">
+        <v>957</v>
+      </c>
+      <c r="N1" s="93" t="s">
         <v>906</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="O1" s="93" t="s">
+        <v>907</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>909</v>
+      </c>
+      <c r="R1" s="93" t="s">
+        <v>910</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>911</v>
+      </c>
+      <c r="T1" s="93" t="s">
+        <v>959</v>
+      </c>
+      <c r="U1" s="93" t="s">
+        <v>912</v>
+      </c>
+      <c r="V1" s="84" t="s">
+        <v>913</v>
+      </c>
+      <c r="W1" s="84" t="s">
+        <v>914</v>
+      </c>
+      <c r="X1" s="84" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y1" s="93" t="s">
         <v>958</v>
-      </c>
-      <c r="N1" s="93" t="s">
-        <v>907</v>
-      </c>
-      <c r="O1" s="93" t="s">
-        <v>908</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>909</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>910</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>911</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>912</v>
-      </c>
-      <c r="T1" s="93" t="s">
-        <v>960</v>
-      </c>
-      <c r="U1" s="93" t="s">
-        <v>913</v>
-      </c>
-      <c r="V1" s="84" t="s">
-        <v>914</v>
-      </c>
-      <c r="W1" s="84" t="s">
-        <v>915</v>
-      </c>
-      <c r="X1" s="84" t="s">
-        <v>916</v>
-      </c>
-      <c r="Y1" s="93" t="s">
-        <v>959</v>
       </c>
       <c r="Z1" s="84" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="84" t="s">
+        <v>916</v>
+      </c>
+      <c r="AB1" s="84" t="s">
         <v>917</v>
       </c>
-      <c r="AB1" s="84" t="s">
+      <c r="AC1" s="84" t="s">
         <v>918</v>
-      </c>
-      <c r="AC1" s="84" t="s">
-        <v>919</v>
       </c>
       <c r="AD1" s="84" t="s">
         <v>254</v>
@@ -44090,7 +44112,7 @@
         <v>259</v>
       </c>
       <c r="AJ1" s="84" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AK1" s="84" t="s">
         <v>324</v>
@@ -44122,7 +44144,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>39</v>
@@ -44145,13 +44167,13 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O2" s="87" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="Q2" s="87" t="s">
         <v>365</v>
@@ -44171,13 +44193,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="87" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="W2" s="87" t="s">
         <v>130</v>
       </c>
       <c r="X2" s="87" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="Y2" s="87" t="b">
         <v>1</v>
@@ -44186,7 +44208,7 @@
         <v>148</v>
       </c>
       <c r="AA2" s="87" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AB2" s="87" t="s">
         <v>172</v>
@@ -44252,7 +44274,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -44266,7 +44288,7 @@
         <v>DRG</v>
       </c>
       <c r="N3" s="87" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O3" s="87" t="s">
         <v>401</v>
@@ -44281,7 +44303,7 @@
         <v>91</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="T3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -44298,7 +44320,7 @@
         <v>128</v>
       </c>
       <c r="X3" s="87" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Y3" s="87" t="b">
         <v>0</v>
@@ -44310,7 +44332,7 @@
         <v>171</v>
       </c>
       <c r="AB3" s="87" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AC3" s="87" t="s">
         <v>174</v>
@@ -44334,7 +44356,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="87" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AK3" s="86" t="s">
         <v>330</v>
@@ -44362,7 +44384,7 @@
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="87" t="s">
@@ -44392,7 +44414,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="T4" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -44405,14 +44427,14 @@
       <c r="V4" s="87"/>
       <c r="W4" s="87"/>
       <c r="X4" s="87" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Y4" s="87"/>
       <c r="Z4" s="87" t="s">
+        <v>931</v>
+      </c>
+      <c r="AA4" s="87" t="s">
         <v>932</v>
-      </c>
-      <c r="AA4" s="87" t="s">
-        <v>933</v>
       </c>
       <c r="AB4" s="87"/>
       <c r="AC4" s="87" t="s">
@@ -44459,7 +44481,7 @@
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="87" t="s">
@@ -44477,7 +44499,7 @@
       </c>
       <c r="N5" s="87"/>
       <c r="O5" s="87" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="P5" s="88"/>
       <c r="Q5" s="87"/>
@@ -44494,7 +44516,7 @@
       <c r="X5" s="87"/>
       <c r="Y5" s="87"/>
       <c r="Z5" s="87" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AA5" s="87"/>
       <c r="AB5" s="87"/>
@@ -44538,7 +44560,7 @@
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
@@ -44554,7 +44576,7 @@
       </c>
       <c r="N6" s="87"/>
       <c r="O6" s="87" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="P6" s="88"/>
       <c r="Q6" s="87"/>
@@ -44611,7 +44633,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
@@ -44627,7 +44649,7 @@
       </c>
       <c r="N7" s="87"/>
       <c r="O7" s="87" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="P7" s="88"/>
       <c r="Q7" s="87"/>
@@ -44682,7 +44704,7 @@
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87"/>
@@ -44751,7 +44773,7 @@
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
@@ -44820,7 +44842,7 @@
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
@@ -44889,7 +44911,7 @@
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -44958,7 +44980,7 @@
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
@@ -45025,7 +45047,7 @@
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
@@ -45092,7 +45114,7 @@
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="87" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
@@ -45226,7 +45248,7 @@
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="87" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
@@ -45293,7 +45315,7 @@
       </c>
       <c r="F17" s="87"/>
       <c r="G17" s="87" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -45360,7 +45382,7 @@
       </c>
       <c r="F18" s="87"/>
       <c r="G18" s="87" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
@@ -45427,7 +45449,7 @@
       </c>
       <c r="F19" s="87"/>
       <c r="G19" s="87" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
@@ -45494,7 +45516,7 @@
       </c>
       <c r="F20" s="87"/>
       <c r="G20" s="87" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
@@ -45561,7 +45583,7 @@
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="87" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
@@ -45628,7 +45650,7 @@
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="87" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H22" s="87"/>
       <c r="I22" s="87"/>
@@ -45695,7 +45717,7 @@
       </c>
       <c r="F23" s="87"/>
       <c r="G23" s="87" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
@@ -45762,7 +45784,7 @@
       </c>
       <c r="F24" s="87"/>
       <c r="G24" s="87" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
@@ -47241,10 +47263,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>608</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>609</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
@@ -47254,10 +47276,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>610</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>611</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
@@ -47267,10 +47289,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>612</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>613</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
@@ -47280,10 +47302,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>615</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
@@ -47293,10 +47315,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>616</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>617</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -47306,10 +47328,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>618</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>619</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -47319,10 +47341,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>801</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>802</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>803</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -47332,10 +47354,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>838</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>839</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>840</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -47345,10 +47367,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>1004</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1005</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -47727,10 +47749,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="42">
       <c r="A1" s="84" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -48243,16 +48265,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>805</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>806</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -48264,7 +48286,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -48275,16 +48297,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D5" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>621</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>622</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -48296,7 +48318,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -48308,7 +48330,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -48320,7 +48342,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -48332,7 +48354,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -48344,7 +48366,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -48356,7 +48378,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -48368,7 +48390,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -48380,7 +48402,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -48392,7 +48414,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -48404,7 +48426,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -48416,7 +48438,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -48428,7 +48450,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -48440,7 +48462,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -48452,7 +48474,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -48464,7 +48486,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -48476,7 +48498,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -48488,7 +48510,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -48500,7 +48522,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -48512,7 +48534,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -48524,7 +48546,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -48536,7 +48558,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -48548,7 +48570,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -48560,7 +48582,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -48572,7 +48594,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -48584,7 +48606,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -48596,7 +48618,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -48608,7 +48630,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -48620,7 +48642,7 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -48632,7 +48654,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -48644,7 +48666,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -48656,7 +48678,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -48668,7 +48690,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -48680,7 +48702,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -48692,7 +48714,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -48704,7 +48726,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -48716,7 +48738,7 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -48728,7 +48750,7 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -48740,7 +48762,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -48752,7 +48774,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -48764,7 +48786,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -48776,7 +48798,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -48787,16 +48809,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="111" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D47" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="E47" s="38" t="s">
         <v>647</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>648</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -48808,7 +48830,7 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -48820,7 +48842,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -48832,7 +48854,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -48844,7 +48866,7 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -48856,7 +48878,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -48868,7 +48890,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -48880,7 +48902,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -48892,7 +48914,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -48904,7 +48926,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -48916,7 +48938,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -48928,7 +48950,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -48940,7 +48962,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -48952,7 +48974,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -48964,7 +48986,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -48976,7 +48998,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -48987,16 +49009,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D63" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>850</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>851</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -49008,7 +49030,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -49020,7 +49042,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -49032,7 +49054,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -49043,16 +49065,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D67" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="E67" s="38" t="s">
         <v>660</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>661</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -49064,7 +49086,7 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -49076,7 +49098,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -49088,7 +49110,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -49100,7 +49122,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -49112,7 +49134,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -49124,7 +49146,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -49136,7 +49158,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -49148,7 +49170,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -49160,7 +49182,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -49172,7 +49194,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -49184,7 +49206,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -49196,7 +49218,7 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -49208,7 +49230,7 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -49220,7 +49242,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -49232,7 +49254,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -49244,7 +49266,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -49256,7 +49278,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -49268,7 +49290,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -49280,7 +49302,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -49291,16 +49313,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="111" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D87" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="E87" s="38" t="s">
         <v>679</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>680</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -49312,7 +49334,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -49324,7 +49346,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -49336,7 +49358,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -49348,7 +49370,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -49360,7 +49382,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -49372,7 +49394,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -49384,7 +49406,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -49396,7 +49418,7 @@
       <c r="C95" s="38"/>
       <c r="D95" s="38"/>
       <c r="E95" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -49408,7 +49430,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -49420,7 +49442,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -49432,7 +49454,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -49444,7 +49466,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -49456,7 +49478,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -49468,7 +49490,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -49480,7 +49502,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -49492,7 +49514,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -49504,7 +49526,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -49516,7 +49538,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -49528,7 +49550,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -49540,7 +49562,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -49552,7 +49574,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -49564,7 +49586,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -49576,7 +49598,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -49588,7 +49610,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -49600,7 +49622,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -49612,7 +49634,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -49624,7 +49646,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -49636,7 +49658,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -49648,7 +49670,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -49659,16 +49681,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="111" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E117" s="111" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -49680,7 +49702,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="111" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -49692,7 +49714,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -49704,7 +49726,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -49716,7 +49738,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -49728,7 +49750,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -49740,7 +49762,7 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
@@ -49752,7 +49774,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="111" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -49764,7 +49786,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="111" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -49776,7 +49798,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="111" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -49788,7 +49810,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="111" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -49800,7 +49822,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="111" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -49812,7 +49834,7 @@
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="111" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -49824,7 +49846,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -49836,7 +49858,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -49848,7 +49870,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -49860,7 +49882,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -49872,7 +49894,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -49883,16 +49905,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="111" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C135" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D135" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="E135" s="38" t="s">
         <v>708</v>
-      </c>
-      <c r="E135" s="38" t="s">
-        <v>709</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -49904,7 +49926,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -49916,7 +49938,7 @@
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -49928,7 +49950,7 @@
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -49940,7 +49962,7 @@
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -49952,7 +49974,7 @@
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -49964,7 +49986,7 @@
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -49976,7 +49998,7 @@
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -49988,7 +50010,7 @@
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -50000,7 +50022,7 @@
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -50012,7 +50034,7 @@
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -50024,7 +50046,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -50036,7 +50058,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -50048,7 +50070,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -50060,7 +50082,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -50072,7 +50094,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -50084,7 +50106,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -50096,7 +50118,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -50108,7 +50130,7 @@
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -50120,7 +50142,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -50132,7 +50154,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -50143,16 +50165,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D156" s="38" t="s">
+        <v>814</v>
+      </c>
+      <c r="E156" s="38" t="s">
         <v>815</v>
-      </c>
-      <c r="E156" s="38" t="s">
-        <v>816</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -50163,16 +50185,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="103" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D157" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E157" s="38" t="s">
         <v>1001</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>1002</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -50184,7 +50206,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -50195,16 +50217,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="111" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -50216,7 +50238,7 @@
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
@@ -50228,7 +50250,7 @@
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
@@ -50240,7 +50262,7 @@
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
@@ -50252,7 +50274,7 @@
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
@@ -50264,7 +50286,7 @@
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
@@ -50276,7 +50298,7 @@
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
@@ -50288,7 +50310,7 @@
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
@@ -50300,7 +50322,7 @@
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
@@ -50312,7 +50334,7 @@
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
@@ -50324,7 +50346,7 @@
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
@@ -50336,7 +50358,7 @@
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
@@ -50348,7 +50370,7 @@
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F171" s="38"/>
       <c r="G171" s="38"/>
@@ -50360,7 +50382,7 @@
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
@@ -50372,7 +50394,7 @@
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
@@ -50384,7 +50406,7 @@
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
@@ -50396,7 +50418,7 @@
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
@@ -50408,7 +50430,7 @@
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
@@ -50420,7 +50442,7 @@
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
@@ -50432,7 +50454,7 @@
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38"/>
@@ -50444,7 +50466,7 @@
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F179" s="38"/>
       <c r="G179" s="38"/>
@@ -50456,7 +50478,7 @@
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F180" s="38"/>
       <c r="G180" s="38"/>
@@ -50468,7 +50490,7 @@
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
@@ -50480,7 +50502,7 @@
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
@@ -50492,7 +50514,7 @@
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
@@ -50504,7 +50526,7 @@
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
@@ -50516,7 +50538,7 @@
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
@@ -50528,7 +50550,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -50540,7 +50562,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -50552,7 +50574,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -50564,7 +50586,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -50576,7 +50598,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -50588,7 +50610,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -50600,7 +50622,7 @@
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
@@ -50612,7 +50634,7 @@
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F193" s="38"/>
       <c r="G193" s="38"/>
@@ -50624,7 +50646,7 @@
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
@@ -50636,7 +50658,7 @@
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
@@ -50648,7 +50670,7 @@
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
@@ -50660,7 +50682,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -50668,7 +50690,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
       <c r="E198" s="38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -50835,7 +50857,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -50843,7 +50865,7 @@
       <c r="E1" s="114"/>
       <c r="F1" s="115"/>
       <c r="G1" s="116" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1" s="117"/>
       <c r="I1" s="117"/>
@@ -50889,16 +50911,16 @@
         <v>418</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>817</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>818</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -50908,7 +50930,7 @@
         <v>418</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="29">
@@ -50919,16 +50941,16 @@
         <v>418</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>820</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>821</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -50938,7 +50960,7 @@
         <v>418</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -51233,8 +51255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -51254,7 +51276,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>472</v>
+        <v>1060</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -51262,7 +51284,7 @@
       <c r="E1" s="114"/>
       <c r="F1" s="115"/>
       <c r="G1" s="113" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1" s="114"/>
       <c r="I1" s="114"/>
@@ -51281,7 +51303,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -51316,13 +51338,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -51337,7 +51359,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="38"/>
@@ -51350,13 +51372,13 @@
         <v>366</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>23</v>
@@ -51371,7 +51393,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="34"/>
@@ -51384,13 +51406,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>23</v>
@@ -51405,7 +51427,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
@@ -51483,21 +51505,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" Default value is &quot;VCN Name&quot; truncated to 15 chars (when left empty)._x000a__x000a_If specified as 'n', DNS will not be enabled for the VCN." sqref="K3:K500"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify a Region to create VCN.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option.">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$F$2:$F$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:I500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -51534,14 +51550,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
       <c r="D1" s="114"/>
       <c r="E1" s="114"/>
       <c r="F1" s="113" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G1" s="114"/>
     </row>
@@ -51553,19 +51569,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="80" t="s">
+        <v>828</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>829</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="80" t="s">
         <v>830</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>831</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="82" t="s">
         <v>832</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -51576,19 +51592,19 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29">
@@ -51599,13 +51615,13 @@
         <v>366</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -51618,13 +51634,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -52041,7 +52057,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>36</v>
@@ -52050,7 +52066,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -52063,7 +52079,7 @@
         <v>366</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>387</v>
@@ -52072,7 +52088,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1062">
   <si>
     <t>Region</t>
   </si>
@@ -7149,6 +7149,9 @@
       <t xml:space="preserve"> PHXNonProd-VCN_ngw)
 </t>
     </r>
+  </si>
+  <si>
+    <t>Backup Network NSGs</t>
   </si>
 </sst>
 </file>
@@ -7695,7 +7698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8015,6 +8018,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -36164,7 +36174,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -36198,25 +36208,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="120" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
       <c r="T1" s="101"/>
@@ -36268,11 +36278,15 @@
       <c r="N2" s="95" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="102" t="s">
+      <c r="O2" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="133" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q2" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
       <c r="T2" s="51"/>
@@ -36296,8 +36310,10 @@
       <c r="K3" s="56"/>
       <c r="L3" s="73"/>
       <c r="M3" s="56"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="38"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="106" t="s">
@@ -36339,10 +36355,11 @@
       <c r="M4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="38" t="s">
         <v>464</v>
       </c>
     </row>
@@ -36359,7 +36376,8 @@
       <c r="L5" s="64"/>
       <c r="M5" s="56"/>
       <c r="N5" s="64"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="134"/>
+      <c r="R5" s="109"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="51"/>
@@ -43104,7 +43122,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
@@ -50706,7 +50724,25 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A83 A87:A533</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A84:A86</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!#REF!,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84:C86</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C656,"*?")+1,2,1,4))</xm:f>
@@ -50733,15 +50769,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C187</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C187 C114:C145</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A83 A87:A533</xm:sqref>
+          <xm:sqref>C114:C145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -50751,33 +50787,87 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C598,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C109:C110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C637,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C148:C149</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C112 C151</xm:sqref>
+          <xm:sqref>C112</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C151</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C601,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C640,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C152</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C111</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C108 C147</xm:sqref>
+          <xm:sqref>C108</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -50814,18 +50904,6 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A84:A86</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!#REF!,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84:C86</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1062">
   <si>
     <t>Region</t>
   </si>
@@ -7956,6 +7956,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8018,13 +8025,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11545,7 +11545,7 @@
   <dimension ref="A1:R500"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11570,28 +11570,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="119" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="121" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -17445,18 +17445,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>835</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -19069,17 +19069,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
@@ -19170,25 +19170,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -19319,28 +19319,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
@@ -20305,15 +20305,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -20493,26 +20493,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>827</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="113" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="115" t="s">
         <v>594</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="115"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" s="47" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -20901,18 +20901,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>595</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -21106,27 +21106,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128" t="s">
         <v>471</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -21498,26 +21498,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="122.5" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
     </row>
     <row r="2" spans="1:18" ht="43" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -21778,13 +21778,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -22044,29 +22044,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="117"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="41" t="s">
@@ -22388,29 +22388,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="116" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="118" t="s">
         <v>479</v>
       </c>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -23087,14 +23087,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -23243,24 +23243,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -23488,17 +23488,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="134" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -23661,34 +23661,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="55" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="117"/>
     </row>
     <row r="2" spans="1:26" s="66" customFormat="1" ht="43.5">
       <c r="A2" s="69" t="s">
@@ -30095,16 +30095,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>986</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="95" t="s">
@@ -36208,25 +36208,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
       <c r="T1" s="101"/>
@@ -36278,10 +36278,10 @@
       <c r="N2" s="95" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="133" t="s">
+      <c r="O2" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="133" t="s">
+      <c r="P2" s="112" t="s">
         <v>1061</v>
       </c>
       <c r="Q2" s="102" t="s">
@@ -36311,7 +36311,7 @@
       <c r="L3" s="73"/>
       <c r="M3" s="56"/>
       <c r="N3" s="64"/>
-      <c r="O3" s="134"/>
+      <c r="O3" s="113"/>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
@@ -36376,7 +36376,7 @@
       <c r="L5" s="64"/>
       <c r="M5" s="56"/>
       <c r="N5" s="64"/>
-      <c r="O5" s="134"/>
+      <c r="O5" s="113"/>
       <c r="R5" s="109"/>
     </row>
     <row r="6" spans="1:24">
@@ -44411,7 +44411,7 @@
       <c r="J4" s="87"/>
       <c r="K4" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,4,4,1,"DHCP")))</f>
-        <v/>
+        <v>dhcp-internal</v>
       </c>
       <c r="L4" s="87" t="s">
         <v>389</v>
@@ -44508,7 +44508,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"DHCP")))</f>
-        <v/>
+        <v>dhcp-external</v>
       </c>
       <c r="L5" s="87"/>
       <c r="M5" s="87" t="str" cm="1">
@@ -44585,7 +44585,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"DHCP")))</f>
-        <v/>
+        <v>dhcp-internal</v>
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="87" t="str" cm="1">
@@ -47251,13 +47251,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -48241,16 +48241,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -50934,20 +50934,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>956</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
@@ -51353,22 +51353,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>1060</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>472</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -51627,17 +51627,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>836</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="115" t="s">
         <v>837</v>
       </c>
-      <c r="G1" s="114"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="80" t="s">
@@ -52019,10 +52019,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -52071,10 +52071,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -52090,16 +52090,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -52171,95 +52171,161 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" ht="28.75" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>749</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>878</v>
+      </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.75" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.75" customHeight="1">
+      <c r="A9" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B9" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D9" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E9" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F9" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G9" s="74" t="s">
         <v>386</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H9" s="75" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1">
-      <c r="A7" s="74" t="s">
+    <row r="10" spans="1:8" ht="28.75" customHeight="1">
+      <c r="A10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B10" s="74" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C10" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D10" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.75" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.75" customHeight="1">
+      <c r="A11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B11" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C11" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D11" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E11" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F11" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&quot;Custom DNS Server&quot; cannot be left empty if the &quot;Server Type&quot; is CustomDnsServer." sqref="G3:G499"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H499"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&quot;Custom DNS Server&quot; cannot be left empty if the &quot;Server Type&quot; is CustomDnsServer." sqref="G3:G502"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H502"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -52270,37 +52336,37 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A499</xm:sqref>
+          <xm:sqref>A3:A502</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E499</xm:sqref>
+          <xm:sqref>E3:E502</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B4</xm:sqref>
+          <xm:sqref>B3:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B503,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B499</xm:sqref>
+          <xm:sqref>B8:B502</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your VCN">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$C$2:C500,"*?")+1,3,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C4</xm:sqref>
+          <xm:sqref>C3:C7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your VCN">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$C$2:C503,"*?")+1,3,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C499</xm:sqref>
+          <xm:sqref>C8:C502</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1067">
   <si>
     <t>Region</t>
   </si>
@@ -5667,9 +5667,6 @@
     <t>nonprod-vcn</t>
   </si>
   <si>
-    <t>10.110.2.0/24</t>
-  </si>
-  <si>
     <t>public</t>
   </si>
   <si>
@@ -6317,9 +6314,6 @@
     <t>Maximum Bandwidth In Mbps (Flexible shapes only)</t>
   </si>
   <si>
-    <t>10.110.3.0/24</t>
-  </si>
-  <si>
     <t>Fixed Reference</t>
   </si>
   <si>
@@ -7152,6 +7146,27 @@
   </si>
   <si>
     <t>Backup Network NSGs</t>
+  </si>
+  <si>
+    <t>fwl-ha</t>
+  </si>
+  <si>
+    <t>10.110.0.0/25</t>
+  </si>
+  <si>
+    <t>10.110.1.0/26</t>
+  </si>
+  <si>
+    <t>10.110.0.128/25</t>
+  </si>
+  <si>
+    <t>10.110.1.64/26</t>
+  </si>
+  <si>
+    <t>fwl-ha-sl,fwl-common-sl</t>
+  </si>
+  <si>
+    <t>fwl-ha-rt</t>
   </si>
 </sst>
 </file>
@@ -11531,7 +11546,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -11542,10 +11557,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R500"/>
+  <dimension ref="A1:R501"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11657,28 +11672,28 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>51</v>
+        <v>1062</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>23</v>
@@ -11711,28 +11726,28 @@
         <v>366</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>751</v>
+        <v>1061</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>23</v>
@@ -11741,11 +11756,11 @@
         <v>55</v>
       </c>
       <c r="M4" s="40" t="str">
-        <f t="shared" ref="M4:M67" si="0">IF(G4="public","n",IF(G4="private","y",""))</f>
+        <f t="shared" ref="M4:M68" si="0">IF(G4="public","n",IF(G4="private","y",""))</f>
         <v>n</v>
       </c>
       <c r="N4" s="40" t="str">
-        <f t="shared" ref="N4:N67" si="1">IF(G4="public","y",IF(G4="private","n",""))</f>
+        <f t="shared" ref="N4:N68" si="1">IF(G4="public","y",IF(G4="private","n",""))</f>
         <v>y</v>
       </c>
       <c r="O4" s="40" t="s">
@@ -11765,13 +11780,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>894</v>
+        <v>1063</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>52</v>
@@ -11783,10 +11798,10 @@
         <v>36</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>23</v>
@@ -11819,13 +11834,13 @@
         <v>366</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>753</v>
+        <v>1060</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>56</v>
+        <v>1064</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>52</v>
@@ -11837,27 +11852,26 @@
         <v>36</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>754</v>
+        <v>1066</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>755</v>
+        <v>1065</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="M6" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>y</v>
+        <v>23</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="N6" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N6" si="2">IF(G6="public","y",IF(G6="private","n",""))</f>
         <v>n</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>23</v>
@@ -11876,10 +11890,10 @@
         <v>749</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>757</v>
+        <v>56</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>52</v>
@@ -11891,10 +11905,10 @@
         <v>36</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>23</v>
@@ -11930,10 +11944,10 @@
         <v>749</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>52</v>
@@ -11945,10 +11959,10 @@
         <v>36</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>23</v>
@@ -11981,42 +11995,42 @@
         <v>366</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>393</v>
+        <v>760</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>752</v>
+        <v>58</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="M9" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>n</v>
+        <v>y</v>
       </c>
       <c r="N9" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>y</v>
+        <v>n</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>21</v>
@@ -12027,7 +12041,7 @@
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
     </row>
-    <row r="10" spans="1:18" s="39" customFormat="1" ht="28.75" customHeight="1">
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="40" t="s">
         <v>325</v>
       </c>
@@ -12038,39 +12052,39 @@
         <v>750</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>58</v>
+        <v>751</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>389</v>
+        <v>55</v>
       </c>
       <c r="M10" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
+        <v>n</v>
       </c>
       <c r="N10" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>n</v>
+        <v>y</v>
       </c>
       <c r="O10" s="40" t="s">
         <v>21</v>
@@ -12092,10 +12106,10 @@
         <v>750</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>52</v>
@@ -12107,10 +12121,10 @@
         <v>36</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>23</v>
@@ -12146,10 +12160,10 @@
         <v>750</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>774</v>
+        <v>397</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>52</v>
@@ -12161,10 +12175,10 @@
         <v>36</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="K12" s="40" t="s">
         <v>23</v>
@@ -12189,102 +12203,102 @@
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
     </row>
-    <row r="13" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+    <row r="13" spans="1:18" s="39" customFormat="1" ht="28.75" customHeight="1">
+      <c r="A13" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>389</v>
+      </c>
       <c r="M13" s="40" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>y</v>
       </c>
       <c r="N13" s="40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="1:18" ht="31.75" customHeight="1">
-      <c r="A14" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>388</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74" t="s">
+        <v>n</v>
+      </c>
+      <c r="O13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="M14" s="74" t="str">
+      <c r="P13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+    </row>
+    <row r="14" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="N14" s="74" t="str">
+        <v/>
+      </c>
+      <c r="N14" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
-      <c r="O14" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="75" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1">
+        <v/>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" ht="31.75" customHeight="1">
       <c r="A15" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>391</v>
+        <v>51</v>
       </c>
       <c r="F15" s="74" t="s">
         <v>52</v>
@@ -12295,13 +12309,15 @@
       <c r="H15" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="74" t="s">
+        <v>53</v>
+      </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="77" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="M15" s="74" t="str">
         <f t="shared" si="0"/>
@@ -12318,9 +12334,11 @@
         <v>21</v>
       </c>
       <c r="Q15" s="77"/>
-      <c r="R15" s="74"/>
-    </row>
-    <row r="16" spans="1:18" ht="28.75" customHeight="1">
+      <c r="R15" s="75" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="74" t="s">
         <v>5</v>
       </c>
@@ -12331,10 +12349,10 @@
         <v>384</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>56</v>
+        <v>391</v>
       </c>
       <c r="F16" s="74" t="s">
         <v>52</v>
@@ -12362,7 +12380,7 @@
         <v>n</v>
       </c>
       <c r="O16" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P16" s="77" t="s">
         <v>21</v>
@@ -12370,21 +12388,21 @@
       <c r="Q16" s="77"/>
       <c r="R16" s="74"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="28.75" customHeight="1">
       <c r="A17" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>393</v>
+        <v>56</v>
       </c>
       <c r="F17" s="74" t="s">
         <v>52</v>
@@ -12393,17 +12411,15 @@
         <v>58</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>387</v>
+        <v>36</v>
       </c>
       <c r="I17" s="74"/>
-      <c r="J17" s="74" t="s">
-        <v>54</v>
-      </c>
+      <c r="J17" s="74"/>
       <c r="K17" s="74" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="77" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M17" s="74" t="str">
         <f t="shared" si="0"/>
@@ -12414,7 +12430,7 @@
         <v>n</v>
       </c>
       <c r="O17" s="77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P17" s="77" t="s">
         <v>21</v>
@@ -12433,10 +12449,10 @@
         <v>385</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F18" s="74" t="s">
         <v>52</v>
@@ -12449,7 +12465,7 @@
       </c>
       <c r="I18" s="74"/>
       <c r="J18" s="74" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="K18" s="74" t="s">
         <v>23</v>
@@ -12466,7 +12482,7 @@
         <v>n</v>
       </c>
       <c r="O18" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="77" t="s">
         <v>21</v>
@@ -12485,10 +12501,10 @@
         <v>385</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F19" s="74" t="s">
         <v>52</v>
@@ -12501,13 +12517,13 @@
       </c>
       <c r="I19" s="74"/>
       <c r="J19" s="74" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K19" s="74" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="77" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
       <c r="M19" s="74" t="str">
         <f t="shared" si="0"/>
@@ -12521,20 +12537,62 @@
         <v>23</v>
       </c>
       <c r="P19" s="77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="77"/>
       <c r="R19" s="74"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="M20" s="39" t="str">
+      <c r="A20" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="K20" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="M20" s="74" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N20" s="39" t="str">
+        <v>y</v>
+      </c>
+      <c r="N20" s="74" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>n</v>
+      </c>
+      <c r="O20" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="74"/>
     </row>
     <row r="21" spans="1:18">
       <c r="M21" s="39" t="str">
@@ -13008,4331 +13066,4341 @@
     </row>
     <row r="68" spans="13:14">
       <c r="M68" s="39" t="str">
-        <f t="shared" ref="M68:M131" si="2">IF(G68="public","n",IF(G68="private","y",""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N68" s="39" t="str">
-        <f t="shared" ref="N68:N131" si="3">IF(G68="public","y",IF(G68="private","n",""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="13:14">
       <c r="M69" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M69:M132" si="3">IF(G69="public","n",IF(G69="private","y",""))</f>
         <v/>
       </c>
       <c r="N69" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N69:N132" si="4">IF(G69="public","y",IF(G69="private","n",""))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="13:14">
       <c r="M70" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N70" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="13:14">
       <c r="M71" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N71" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="13:14">
       <c r="M72" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N72" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="13:14">
       <c r="M73" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N73" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="13:14">
       <c r="M74" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N74" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="13:14">
       <c r="M75" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N75" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="13:14">
       <c r="M76" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N76" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="13:14">
       <c r="M77" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N77" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="13:14">
       <c r="M78" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N78" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="13:14">
       <c r="M79" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N79" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="13:14">
       <c r="M80" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N80" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="13:14">
       <c r="M81" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N81" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="13:14">
       <c r="M82" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N82" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="13:14">
       <c r="M83" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N83" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="13:14">
       <c r="M84" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N84" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="13:14">
       <c r="M85" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N85" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="13:14">
       <c r="M86" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N86" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="13:14">
       <c r="M87" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N87" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="13:14">
       <c r="M88" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N88" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="13:14">
       <c r="M89" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N89" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="13:14">
       <c r="M90" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N90" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="13:14">
       <c r="M91" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N91" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="13:14">
       <c r="M92" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N92" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="13:14">
       <c r="M93" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N93" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="13:14">
       <c r="M94" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N94" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="13:14">
       <c r="M95" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N95" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="13:14">
       <c r="M96" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N96" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="13:14">
       <c r="M97" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N97" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="13:14">
       <c r="M98" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N98" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="13:14">
       <c r="M99" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N99" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="13:14">
       <c r="M100" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N100" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="13:14">
       <c r="M101" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N101" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="13:14">
       <c r="M102" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N102" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="13:14">
       <c r="M103" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N103" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="13:14">
       <c r="M104" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N104" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="13:14">
       <c r="M105" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N105" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="13:14">
       <c r="M106" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N106" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="13:14">
       <c r="M107" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N107" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="13:14">
       <c r="M108" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N108" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="13:14">
       <c r="M109" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N109" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="13:14">
       <c r="M110" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N110" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="13:14">
       <c r="M111" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N111" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="13:14">
       <c r="M112" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N112" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="13:14">
       <c r="M113" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N113" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="13:14">
       <c r="M114" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N114" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="13:14">
       <c r="M115" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N115" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="13:14">
       <c r="M116" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N116" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="13:14">
       <c r="M117" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N117" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="13:14">
       <c r="M118" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N118" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="13:14">
       <c r="M119" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N119" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="13:14">
       <c r="M120" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N120" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="13:14">
       <c r="M121" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N121" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="13:14">
       <c r="M122" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N122" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="13:14">
       <c r="M123" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N123" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="13:14">
       <c r="M124" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N124" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="13:14">
       <c r="M125" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N125" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="13:14">
       <c r="M126" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N126" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="13:14">
       <c r="M127" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N127" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="13:14">
       <c r="M128" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N128" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="13:14">
       <c r="M129" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N129" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="13:14">
       <c r="M130" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N130" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="13:14">
       <c r="M131" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N131" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="13:14">
       <c r="M132" s="39" t="str">
-        <f t="shared" ref="M132:M195" si="4">IF(G132="public","n",IF(G132="private","y",""))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N132" s="39" t="str">
-        <f t="shared" ref="N132:N195" si="5">IF(G132="public","y",IF(G132="private","n",""))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="13:14">
       <c r="M133" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M133:M196" si="5">IF(G133="public","n",IF(G133="private","y",""))</f>
         <v/>
       </c>
       <c r="N133" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N133:N196" si="6">IF(G133="public","y",IF(G133="private","n",""))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="13:14">
       <c r="M134" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N134" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="13:14">
       <c r="M135" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N135" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="13:14">
       <c r="M136" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N136" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="13:14">
       <c r="M137" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N137" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="13:14">
       <c r="M138" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N138" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="13:14">
       <c r="M139" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N139" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="13:14">
       <c r="M140" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N140" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="13:14">
       <c r="M141" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N141" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="13:14">
       <c r="M142" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N142" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="13:14">
       <c r="M143" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N143" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="13:14">
       <c r="M144" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N144" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="13:14">
       <c r="M145" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N145" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="13:14">
       <c r="M146" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N146" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="13:14">
       <c r="M147" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N147" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="13:14">
       <c r="M148" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N148" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="13:14">
       <c r="M149" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N149" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="13:14">
       <c r="M150" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N150" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="13:14">
       <c r="M151" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N151" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="13:14">
       <c r="M152" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N152" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="13:14">
       <c r="M153" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N153" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="13:14">
       <c r="M154" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N154" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="13:14">
       <c r="M155" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N155" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="13:14">
       <c r="M156" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N156" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="13:14">
       <c r="M157" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N157" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="13:14">
       <c r="M158" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N158" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="13:14">
       <c r="M159" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N159" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="13:14">
       <c r="M160" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N160" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="13:14">
       <c r="M161" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N161" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="13:14">
       <c r="M162" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N162" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="13:14">
       <c r="M163" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N163" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="13:14">
       <c r="M164" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N164" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="13:14">
       <c r="M165" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N165" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="13:14">
       <c r="M166" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N166" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="13:14">
       <c r="M167" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N167" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="13:14">
       <c r="M168" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N168" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="13:14">
       <c r="M169" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N169" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="13:14">
       <c r="M170" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N170" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="13:14">
       <c r="M171" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N171" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="13:14">
       <c r="M172" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N172" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="13:14">
       <c r="M173" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N173" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="13:14">
       <c r="M174" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N174" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="13:14">
       <c r="M175" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N175" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="13:14">
       <c r="M176" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N176" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="13:14">
       <c r="M177" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N177" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="13:14">
       <c r="M178" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N178" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="13:14">
       <c r="M179" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N179" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="13:14">
       <c r="M180" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N180" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="13:14">
       <c r="M181" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N181" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="13:14">
       <c r="M182" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N182" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="13:14">
       <c r="M183" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N183" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="13:14">
       <c r="M184" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N184" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="13:14">
       <c r="M185" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N185" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="13:14">
       <c r="M186" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N186" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="13:14">
       <c r="M187" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N187" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="13:14">
       <c r="M188" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N188" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="13:14">
       <c r="M189" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N189" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="13:14">
       <c r="M190" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N190" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="13:14">
       <c r="M191" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N191" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="13:14">
       <c r="M192" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N192" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="13:14">
       <c r="M193" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N193" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="13:14">
       <c r="M194" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N194" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="13:14">
       <c r="M195" s="39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N195" s="39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="13:14">
       <c r="M196" s="39" t="str">
-        <f t="shared" ref="M196:M259" si="6">IF(G196="public","n",IF(G196="private","y",""))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N196" s="39" t="str">
-        <f t="shared" ref="N196:N259" si="7">IF(G196="public","y",IF(G196="private","n",""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="13:14">
       <c r="M197" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M197:M260" si="7">IF(G197="public","n",IF(G197="private","y",""))</f>
         <v/>
       </c>
       <c r="N197" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N197:N260" si="8">IF(G197="public","y",IF(G197="private","n",""))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="13:14">
       <c r="M198" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N198" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="13:14">
       <c r="M199" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N199" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="13:14">
       <c r="M200" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N200" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="13:14">
       <c r="M201" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N201" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="13:14">
       <c r="M202" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N202" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="13:14">
       <c r="M203" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N203" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="13:14">
       <c r="M204" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N204" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="13:14">
       <c r="M205" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N205" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="13:14">
       <c r="M206" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N206" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="13:14">
       <c r="M207" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N207" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="13:14">
       <c r="M208" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N208" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="13:14">
       <c r="M209" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N209" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="13:14">
       <c r="M210" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N210" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="13:14">
       <c r="M211" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N211" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="13:14">
       <c r="M212" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N212" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="13:14">
       <c r="M213" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N213" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="13:14">
       <c r="M214" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N214" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="13:14">
       <c r="M215" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N215" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="13:14">
       <c r="M216" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N216" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="13:14">
       <c r="M217" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N217" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="13:14">
       <c r="M218" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N218" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="13:14">
       <c r="M219" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N219" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="13:14">
       <c r="M220" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N220" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="13:14">
       <c r="M221" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N221" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="13:14">
       <c r="M222" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N222" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="13:14">
       <c r="M223" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N223" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="13:14">
       <c r="M224" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N224" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="13:14">
       <c r="M225" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N225" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="13:14">
       <c r="M226" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N226" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="13:14">
       <c r="M227" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N227" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="13:14">
       <c r="M228" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N228" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="13:14">
       <c r="M229" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N229" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="13:14">
       <c r="M230" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N230" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="13:14">
       <c r="M231" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N231" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="13:14">
       <c r="M232" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N232" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="13:14">
       <c r="M233" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N233" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="13:14">
       <c r="M234" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N234" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="13:14">
       <c r="M235" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N235" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="13:14">
       <c r="M236" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N236" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="13:14">
       <c r="M237" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N237" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="13:14">
       <c r="M238" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N238" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="13:14">
       <c r="M239" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N239" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="13:14">
       <c r="M240" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N240" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="13:14">
       <c r="M241" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N241" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="13:14">
       <c r="M242" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N242" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="13:14">
       <c r="M243" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N243" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="13:14">
       <c r="M244" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N244" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="13:14">
       <c r="M245" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N245" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="13:14">
       <c r="M246" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N246" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="13:14">
       <c r="M247" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N247" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="13:14">
       <c r="M248" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N248" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="13:14">
       <c r="M249" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N249" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="13:14">
       <c r="M250" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N250" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="13:14">
       <c r="M251" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N251" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="13:14">
       <c r="M252" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N252" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="13:14">
       <c r="M253" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N253" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="13:14">
       <c r="M254" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N254" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="13:14">
       <c r="M255" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N255" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="13:14">
       <c r="M256" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N256" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="13:14">
       <c r="M257" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N257" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="13:14">
       <c r="M258" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N258" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="13:14">
       <c r="M259" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N259" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="13:14">
       <c r="M260" s="39" t="str">
-        <f t="shared" ref="M260:M323" si="8">IF(G260="public","n",IF(G260="private","y",""))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N260" s="39" t="str">
-        <f t="shared" ref="N260:N323" si="9">IF(G260="public","y",IF(G260="private","n",""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="13:14">
       <c r="M261" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M261:M324" si="9">IF(G261="public","n",IF(G261="private","y",""))</f>
         <v/>
       </c>
       <c r="N261" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N261:N324" si="10">IF(G261="public","y",IF(G261="private","n",""))</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="13:14">
       <c r="M262" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N262" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="13:14">
       <c r="M263" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N263" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="13:14">
       <c r="M264" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N264" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="13:14">
       <c r="M265" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N265" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="13:14">
       <c r="M266" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N266" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="13:14">
       <c r="M267" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N267" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="13:14">
       <c r="M268" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N268" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="13:14">
       <c r="M269" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N269" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="13:14">
       <c r="M270" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N270" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="13:14">
       <c r="M271" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N271" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="13:14">
       <c r="M272" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N272" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="13:14">
       <c r="M273" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N273" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="13:14">
       <c r="M274" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N274" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="13:14">
       <c r="M275" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N275" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="13:14">
       <c r="M276" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N276" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="13:14">
       <c r="M277" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N277" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="13:14">
       <c r="M278" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N278" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="13:14">
       <c r="M279" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N279" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="13:14">
       <c r="M280" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N280" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="13:14">
       <c r="M281" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N281" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="13:14">
       <c r="M282" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N282" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="13:14">
       <c r="M283" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N283" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="13:14">
       <c r="M284" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N284" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="13:14">
       <c r="M285" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N285" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="13:14">
       <c r="M286" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N286" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="13:14">
       <c r="M287" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N287" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="13:14">
       <c r="M288" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N288" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="13:14">
       <c r="M289" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N289" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="13:14">
       <c r="M290" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N290" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="13:14">
       <c r="M291" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N291" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="13:14">
       <c r="M292" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N292" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="13:14">
       <c r="M293" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N293" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="13:14">
       <c r="M294" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N294" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="13:14">
       <c r="M295" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N295" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="13:14">
       <c r="M296" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N296" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="13:14">
       <c r="M297" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N297" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="13:14">
       <c r="M298" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N298" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="13:14">
       <c r="M299" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N299" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="13:14">
       <c r="M300" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N300" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="13:14">
       <c r="M301" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N301" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="13:14">
       <c r="M302" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N302" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="13:14">
       <c r="M303" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N303" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="13:14">
       <c r="M304" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N304" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="13:14">
       <c r="M305" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N305" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="13:14">
       <c r="M306" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N306" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="13:14">
       <c r="M307" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N307" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="13:14">
       <c r="M308" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N308" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="13:14">
       <c r="M309" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N309" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="13:14">
       <c r="M310" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N310" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="13:14">
       <c r="M311" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N311" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="13:14">
       <c r="M312" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N312" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="13:14">
       <c r="M313" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N313" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="13:14">
       <c r="M314" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N314" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="13:14">
       <c r="M315" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N315" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="13:14">
       <c r="M316" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N316" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="13:14">
       <c r="M317" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N317" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="13:14">
       <c r="M318" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N318" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="13:14">
       <c r="M319" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N319" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="13:14">
       <c r="M320" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N320" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="13:14">
       <c r="M321" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N321" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="13:14">
       <c r="M322" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N322" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="13:14">
       <c r="M323" s="39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N323" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="13:14">
       <c r="M324" s="39" t="str">
-        <f t="shared" ref="M324:M387" si="10">IF(G324="public","n",IF(G324="private","y",""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N324" s="39" t="str">
-        <f t="shared" ref="N324:N387" si="11">IF(G324="public","y",IF(G324="private","n",""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="13:14">
       <c r="M325" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M325:M388" si="11">IF(G325="public","n",IF(G325="private","y",""))</f>
         <v/>
       </c>
       <c r="N325" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N325:N388" si="12">IF(G325="public","y",IF(G325="private","n",""))</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="13:14">
       <c r="M326" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N326" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="13:14">
       <c r="M327" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N327" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="13:14">
       <c r="M328" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N328" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="13:14">
       <c r="M329" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N329" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="13:14">
       <c r="M330" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N330" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="13:14">
       <c r="M331" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N331" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="13:14">
       <c r="M332" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N332" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="13:14">
       <c r="M333" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N333" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="13:14">
       <c r="M334" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N334" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="13:14">
       <c r="M335" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N335" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="13:14">
       <c r="M336" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N336" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="13:14">
       <c r="M337" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N337" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="13:14">
       <c r="M338" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N338" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="13:14">
       <c r="M339" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N339" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="13:14">
       <c r="M340" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N340" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="13:14">
       <c r="M341" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N341" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="13:14">
       <c r="M342" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N342" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="13:14">
       <c r="M343" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N343" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="13:14">
       <c r="M344" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N344" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="13:14">
       <c r="M345" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N345" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="13:14">
       <c r="M346" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N346" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="13:14">
       <c r="M347" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N347" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="13:14">
       <c r="M348" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N348" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="13:14">
       <c r="M349" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N349" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="13:14">
       <c r="M350" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N350" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="13:14">
       <c r="M351" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N351" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="13:14">
       <c r="M352" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N352" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="13:14">
       <c r="M353" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N353" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="13:14">
       <c r="M354" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N354" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="13:14">
       <c r="M355" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N355" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="13:14">
       <c r="M356" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N356" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="13:14">
       <c r="M357" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N357" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="13:14">
       <c r="M358" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N358" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="13:14">
       <c r="M359" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N359" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="13:14">
       <c r="M360" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N360" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="13:14">
       <c r="M361" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N361" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="13:14">
       <c r="M362" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N362" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="13:14">
       <c r="M363" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N363" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="13:14">
       <c r="M364" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N364" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="13:14">
       <c r="M365" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N365" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="13:14">
       <c r="M366" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N366" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="13:14">
       <c r="M367" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N367" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="13:14">
       <c r="M368" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N368" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="13:14">
       <c r="M369" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N369" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="13:14">
       <c r="M370" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N370" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="13:14">
       <c r="M371" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N371" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="13:14">
       <c r="M372" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N372" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="13:14">
       <c r="M373" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N373" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="13:14">
       <c r="M374" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N374" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="13:14">
       <c r="M375" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N375" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="13:14">
       <c r="M376" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N376" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="13:14">
       <c r="M377" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N377" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="13:14">
       <c r="M378" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N378" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="13:14">
       <c r="M379" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N379" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="13:14">
       <c r="M380" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N380" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="13:14">
       <c r="M381" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N381" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="13:14">
       <c r="M382" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N382" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="13:14">
       <c r="M383" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N383" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="13:14">
       <c r="M384" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N384" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="13:14">
       <c r="M385" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N385" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="13:14">
       <c r="M386" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N386" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="13:14">
       <c r="M387" s="39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N387" s="39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="13:14">
       <c r="M388" s="39" t="str">
-        <f t="shared" ref="M388:M451" si="12">IF(G388="public","n",IF(G388="private","y",""))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N388" s="39" t="str">
-        <f t="shared" ref="N388:N451" si="13">IF(G388="public","y",IF(G388="private","n",""))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="13:14">
       <c r="M389" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M389:M452" si="13">IF(G389="public","n",IF(G389="private","y",""))</f>
         <v/>
       </c>
       <c r="N389" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N389:N452" si="14">IF(G389="public","y",IF(G389="private","n",""))</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="13:14">
       <c r="M390" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N390" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="13:14">
       <c r="M391" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N391" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="13:14">
       <c r="M392" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N392" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="13:14">
       <c r="M393" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N393" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="13:14">
       <c r="M394" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N394" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="13:14">
       <c r="M395" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N395" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="13:14">
       <c r="M396" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N396" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="13:14">
       <c r="M397" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N397" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="13:14">
       <c r="M398" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N398" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="13:14">
       <c r="M399" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N399" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="13:14">
       <c r="M400" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N400" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="13:14">
       <c r="M401" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N401" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="13:14">
       <c r="M402" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N402" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="13:14">
       <c r="M403" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N403" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="13:14">
       <c r="M404" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N404" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="13:14">
       <c r="M405" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N405" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="13:14">
       <c r="M406" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N406" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="13:14">
       <c r="M407" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N407" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="13:14">
       <c r="M408" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N408" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="13:14">
       <c r="M409" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N409" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="13:14">
       <c r="M410" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N410" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="13:14">
       <c r="M411" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N411" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="13:14">
       <c r="M412" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N412" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="13:14">
       <c r="M413" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N413" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="13:14">
       <c r="M414" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N414" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="13:14">
       <c r="M415" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N415" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="13:14">
       <c r="M416" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N416" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="13:14">
       <c r="M417" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N417" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="13:14">
       <c r="M418" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N418" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="13:14">
       <c r="M419" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N419" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="13:14">
       <c r="M420" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N420" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="13:14">
       <c r="M421" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N421" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="13:14">
       <c r="M422" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N422" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="13:14">
       <c r="M423" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N423" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="13:14">
       <c r="M424" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N424" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="13:14">
       <c r="M425" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N425" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="13:14">
       <c r="M426" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N426" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="13:14">
       <c r="M427" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N427" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="13:14">
       <c r="M428" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N428" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="13:14">
       <c r="M429" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N429" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="13:14">
       <c r="M430" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N430" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="13:14">
       <c r="M431" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N431" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="13:14">
       <c r="M432" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N432" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="13:14">
       <c r="M433" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N433" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="13:14">
       <c r="M434" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N434" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="13:14">
       <c r="M435" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N435" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="13:14">
       <c r="M436" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N436" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="13:14">
       <c r="M437" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N437" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="13:14">
       <c r="M438" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N438" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="13:14">
       <c r="M439" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N439" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="13:14">
       <c r="M440" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N440" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="13:14">
       <c r="M441" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N441" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="13:14">
       <c r="M442" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N442" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="13:14">
       <c r="M443" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N443" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="13:14">
       <c r="M444" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N444" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="13:14">
       <c r="M445" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N445" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="13:14">
       <c r="M446" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N446" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="13:14">
       <c r="M447" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N447" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="13:14">
       <c r="M448" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N448" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="13:14">
       <c r="M449" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N449" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="13:14">
       <c r="M450" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N450" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="13:14">
       <c r="M451" s="39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N451" s="39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="13:14">
       <c r="M452" s="39" t="str">
-        <f t="shared" ref="M452:M500" si="14">IF(G452="public","n",IF(G452="private","y",""))</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N452" s="39" t="str">
-        <f t="shared" ref="N452:N500" si="15">IF(G452="public","y",IF(G452="private","n",""))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="13:14">
       <c r="M453" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M453:M501" si="15">IF(G453="public","n",IF(G453="private","y",""))</f>
         <v/>
       </c>
       <c r="N453" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="N453:N501" si="16">IF(G453="public","y",IF(G453="private","n",""))</f>
         <v/>
       </c>
     </row>
     <row r="454" spans="13:14">
       <c r="M454" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N454" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="13:14">
       <c r="M455" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N455" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="13:14">
       <c r="M456" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N456" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="13:14">
       <c r="M457" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N457" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="13:14">
       <c r="M458" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N458" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="13:14">
       <c r="M459" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N459" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="13:14">
       <c r="M460" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N460" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="13:14">
       <c r="M461" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N461" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="13:14">
       <c r="M462" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N462" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="13:14">
       <c r="M463" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N463" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="13:14">
       <c r="M464" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N464" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="13:14">
       <c r="M465" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N465" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="13:14">
       <c r="M466" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N466" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="13:14">
       <c r="M467" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N467" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="13:14">
       <c r="M468" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N468" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="13:14">
       <c r="M469" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N469" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="13:14">
       <c r="M470" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N470" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="13:14">
       <c r="M471" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N471" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="13:14">
       <c r="M472" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N472" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="13:14">
       <c r="M473" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N473" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="13:14">
       <c r="M474" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N474" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="13:14">
       <c r="M475" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N475" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="13:14">
       <c r="M476" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N476" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="13:14">
       <c r="M477" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N477" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="13:14">
       <c r="M478" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N478" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="13:14">
       <c r="M479" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N479" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="13:14">
       <c r="M480" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N480" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="13:14">
       <c r="M481" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N481" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="13:14">
       <c r="M482" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N482" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="13:14">
       <c r="M483" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N483" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="13:14">
       <c r="M484" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N484" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="13:14">
       <c r="M485" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N485" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="13:14">
       <c r="M486" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N486" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="13:14">
       <c r="M487" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N487" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="13:14">
       <c r="M488" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N488" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="13:14">
       <c r="M489" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N489" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="13:14">
       <c r="M490" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N490" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="13:14">
       <c r="M491" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N491" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="13:14">
       <c r="M492" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N492" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="13:14">
       <c r="M493" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N493" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="494" spans="13:14">
       <c r="M494" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N494" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="13:14">
       <c r="M495" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N495" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="13:14">
       <c r="M496" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N496" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="13:14">
       <c r="M497" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N497" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="13:14">
       <c r="M498" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N498" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="13:14">
       <c r="M499" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N499" s="39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="13:14">
       <c r="M500" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N500" s="39" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="13:14">
+      <c r="M501" s="39" t="str">
         <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N501" s="39" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -17342,77 +17410,95 @@
     <mergeCell ref="I1:R1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Subnet Names are case-sensitive across sheets." sqref="D3:D500"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update nonoverlapping CIDR for the subnet" sqref="E3:E500"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the name of the route table that needs to be attached to subnet. _x000a__x000a_If left blank, route table with the same name as that of subnet will be attached. _x000a__x000a_Specify 'n' to not attach any custom route table to the subnet" sqref="I3:I500"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify comma seperated names of SLs to be attached to the subnet._x000a__x000a_If left blank, a seclist with the name as that of subnet will be attached. _x000a__x000a_Specify 'n' to not attach any custom security list to the subnet." sqref="J3:J500"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Default value is &quot;Subnet Name&quot; truncated to 15 chars (when left empty)._x000a_If specified as 'n', DNS will not be enabled for the Subnet." sqref="Q3:Q500"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="R3:R500"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Subnet Names are case-sensitive across sheets." sqref="D3:D501"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update nonoverlapping CIDR for the subnet" sqref="E3:E501"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the name of the route table that needs to be attached to subnet. _x000a__x000a_If left blank, route table with the same name as that of subnet will be attached. _x000a__x000a_Specify 'n' to not attach any custom route table to the subnet" sqref="I3:I501"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify comma seperated names of SLs to be attached to the subnet._x000a__x000a_If left blank, a seclist with the name as that of subnet will be attached. _x000a__x000a_Specify 'n' to not attach any custom security list to the subnet." sqref="J3:J501"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Default value is &quot;Subnet Name&quot; truncated to 15 chars (when left empty)._x000a_If specified as 'n', DNS will not be enabled for the Subnet." sqref="Q3:Q501"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="R3:R501"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify a Region to create Subnet.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A500</xm:sqref>
+          <xm:sqref>A3:A501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Valid Options - AD1|AD2|AD3|Regional">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F500</xm:sqref>
+          <xm:sqref>F3:F501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option selected" prompt="select subnet type._x000a_options - private|public">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$J$2:$J$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G500</xm:sqref>
+          <xm:sqref>G3:G501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K500</xm:sqref>
+          <xm:sqref>K3:K501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid Option" prompt="Options- n|object_storage|all_services">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L500</xm:sqref>
+          <xm:sqref>L3:L501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:N500</xm:sqref>
+          <xm:sqref>M3:N501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid option">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O3:P500</xm:sqref>
+          <xm:sqref>O3:P501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B500</xm:sqref>
+          <xm:sqref>B3:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B503,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:B501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your VCN">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$C$2:C500,"*?")+1,3,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C500</xm:sqref>
+          <xm:sqref>C3:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your VCN">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$C$2:C503,"*?")+1,3,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Defaults to &quot;dafault dhcp option&quot; name of the VCN when left blank.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$K$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$K$2:K500,"*?")+1,11,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H500</xm:sqref>
+          <xm:sqref>H3:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Defaults to &quot;dafault dhcp option&quot; name of the VCN when left blank.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$K$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$K$2:K503,"*?")+1,11,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>H7:H501</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17446,7 +17532,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="114" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -17466,25 +17552,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>830</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>831</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>444</v>
@@ -17502,20 +17588,20 @@
         <v>748</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
@@ -19415,10 +19501,10 @@
         <v>747</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>777</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>778</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>401</v>
@@ -19432,7 +19518,7 @@
         <v>402</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -19445,7 +19531,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -19461,10 +19547,10 @@
         <v>747</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>401</v>
@@ -19473,7 +19559,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>29</v>
@@ -19491,7 +19577,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -19507,10 +19593,10 @@
         <v>747</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>401</v>
@@ -19519,10 +19605,10 @@
         <v>80</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -19537,7 +19623,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -19553,10 +19639,10 @@
         <v>747</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>401</v>
@@ -19570,7 +19656,7 @@
         <v>402</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -19583,7 +19669,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -19599,10 +19685,10 @@
         <v>747</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>401</v>
@@ -19611,10 +19697,10 @@
         <v>80</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -19629,7 +19715,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -19645,10 +19731,10 @@
         <v>747</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>401</v>
@@ -19657,10 +19743,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -19675,7 +19761,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -19691,10 +19777,10 @@
         <v>747</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>401</v>
@@ -19708,7 +19794,7 @@
         <v>402</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -19721,7 +19807,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -19737,10 +19823,10 @@
         <v>747</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>401</v>
@@ -19751,10 +19837,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>793</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>794</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -19767,7 +19853,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -19783,10 +19869,10 @@
         <v>747</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>401</v>
@@ -19795,10 +19881,10 @@
         <v>80</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -19813,7 +19899,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -19829,10 +19915,10 @@
         <v>747</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>401</v>
@@ -19841,10 +19927,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -19859,7 +19945,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -19875,10 +19961,10 @@
         <v>747</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>401</v>
@@ -19892,7 +19978,7 @@
         <v>402</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -19905,7 +19991,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -19921,10 +20007,10 @@
         <v>747</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>401</v>
@@ -19935,10 +20021,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>793</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>794</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -19951,7 +20037,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -19967,10 +20053,10 @@
         <v>747</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>401</v>
@@ -19979,10 +20065,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -19997,7 +20083,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -20013,10 +20099,10 @@
         <v>747</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>401</v>
@@ -20025,10 +20111,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -20043,7 +20129,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -20494,7 +20580,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
       <c r="A1" s="122" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -21189,7 +21275,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -21228,7 +21314,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -21253,7 +21339,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>127</v>
@@ -21277,7 +21363,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>129</v>
@@ -21314,7 +21400,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -21347,7 +21433,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>134</v>
@@ -21386,7 +21472,7 @@
         <v>133</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>136</v>
@@ -21423,7 +21509,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -21530,13 +21616,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>892</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>893</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>140</v>
@@ -23704,31 +23790,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F2" s="69" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="69" t="s">
+        <v>961</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>962</v>
+      </c>
+      <c r="I2" s="69" t="s">
         <v>963</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>964</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="K2" s="95" t="s">
         <v>965</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="L2" s="69" t="s">
         <v>966</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="M2" s="70" t="s">
         <v>967</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>968</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>969</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>425</v>
@@ -23746,10 +23832,10 @@
         <v>428</v>
       </c>
       <c r="S2" s="69" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="T2" s="69" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="U2" s="69" t="s">
         <v>96</v>
@@ -23761,7 +23847,7 @@
         <v>332</v>
       </c>
       <c r="X2" s="69" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="Y2" s="69" t="s">
         <v>596</v>
@@ -23811,10 +23897,10 @@
         <v>57</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>349</v>
@@ -23837,7 +23923,7 @@
         <v>338</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="O4" s="56" t="s">
         <v>339</v>
@@ -23885,10 +23971,10 @@
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>352</v>
@@ -23913,7 +23999,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="O5" s="56" t="s">
         <v>354</v>
@@ -23934,7 +24020,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="V5" s="40" t="s">
         <v>344</v>
@@ -30096,7 +30182,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -30114,7 +30200,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>85</v>
@@ -30123,10 +30209,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H2" s="98" t="s">
         <v>444</v>
@@ -30158,7 +30244,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -36243,34 +36329,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F2" s="95" t="s">
         <v>356</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="95" t="s">
+        <v>987</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>988</v>
+      </c>
+      <c r="L2" s="95" t="s">
         <v>989</v>
-      </c>
-      <c r="K2" s="95" t="s">
-        <v>990</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>991</v>
       </c>
       <c r="M2" s="95" t="s">
         <v>96</v>
@@ -36282,7 +36368,7 @@
         <v>98</v>
       </c>
       <c r="P2" s="112" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="Q2" s="102" t="s">
         <v>444</v>
@@ -36326,13 +36412,13 @@
         <v>432</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G4" s="110">
         <v>4</v>
@@ -36341,7 +36427,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>437</v>
@@ -43210,22 +43296,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="52" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>433</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>358</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>332</v>
@@ -43234,13 +43320,13 @@
         <v>331</v>
       </c>
       <c r="I1" s="97" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J1" s="97" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -43272,7 +43358,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -43280,7 +43366,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="96" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>435</v>
@@ -43307,7 +43393,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -43315,7 +43401,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="96" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>353</v>
@@ -43337,7 +43423,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>436</v>
@@ -43357,7 +43443,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -43370,11 +43456,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="96" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -43387,11 +43473,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="96" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -43425,7 +43511,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
@@ -43438,11 +43524,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="96" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
@@ -43459,11 +43545,11 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
@@ -43476,7 +43562,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -43491,7 +43577,7 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -44025,91 +44111,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="85" customFormat="1" ht="148" customHeight="1">
       <c r="A1" s="93" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>894</v>
+      </c>
+      <c r="C1" s="93" t="s">
         <v>895</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="D1" s="93" t="s">
         <v>896</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>897</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="F1" s="93" t="s">
         <v>898</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>899</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>900</v>
       </c>
       <c r="G1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="93" t="s">
+        <v>899</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>900</v>
+      </c>
+      <c r="J1" s="93" t="s">
         <v>901</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="K1" s="93" t="s">
         <v>902</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="L1" s="93" t="s">
         <v>903</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="M1" s="93" t="s">
+        <v>955</v>
+      </c>
+      <c r="N1" s="93" t="s">
         <v>904</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="O1" s="93" t="s">
         <v>905</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="P1" s="93" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>907</v>
+      </c>
+      <c r="R1" s="93" t="s">
+        <v>908</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>909</v>
+      </c>
+      <c r="T1" s="93" t="s">
         <v>957</v>
       </c>
-      <c r="N1" s="93" t="s">
-        <v>906</v>
-      </c>
-      <c r="O1" s="93" t="s">
-        <v>907</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>908</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>909</v>
-      </c>
-      <c r="R1" s="93" t="s">
+      <c r="U1" s="93" t="s">
         <v>910</v>
       </c>
-      <c r="S1" s="93" t="s">
+      <c r="V1" s="84" t="s">
         <v>911</v>
       </c>
-      <c r="T1" s="93" t="s">
-        <v>959</v>
-      </c>
-      <c r="U1" s="93" t="s">
+      <c r="W1" s="84" t="s">
         <v>912</v>
       </c>
-      <c r="V1" s="84" t="s">
+      <c r="X1" s="84" t="s">
         <v>913</v>
       </c>
-      <c r="W1" s="84" t="s">
-        <v>914</v>
-      </c>
-      <c r="X1" s="84" t="s">
-        <v>915</v>
-      </c>
       <c r="Y1" s="93" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="Z1" s="84" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="84" t="s">
+        <v>914</v>
+      </c>
+      <c r="AB1" s="84" t="s">
+        <v>915</v>
+      </c>
+      <c r="AC1" s="84" t="s">
         <v>916</v>
-      </c>
-      <c r="AB1" s="84" t="s">
-        <v>917</v>
-      </c>
-      <c r="AC1" s="84" t="s">
-        <v>918</v>
       </c>
       <c r="AD1" s="84" t="s">
         <v>254</v>
@@ -44130,7 +44216,7 @@
         <v>259</v>
       </c>
       <c r="AJ1" s="84" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AK1" s="84" t="s">
         <v>324</v>
@@ -44162,7 +44248,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>39</v>
@@ -44185,13 +44271,13 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O2" s="87" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="Q2" s="87" t="s">
         <v>365</v>
@@ -44211,13 +44297,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="87" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="W2" s="87" t="s">
         <v>130</v>
       </c>
       <c r="X2" s="87" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="Y2" s="87" t="b">
         <v>1</v>
@@ -44226,7 +44312,7 @@
         <v>148</v>
       </c>
       <c r="AA2" s="87" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AB2" s="87" t="s">
         <v>172</v>
@@ -44292,7 +44378,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -44306,7 +44392,7 @@
         <v>DRG</v>
       </c>
       <c r="N3" s="87" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O3" s="87" t="s">
         <v>401</v>
@@ -44321,7 +44407,7 @@
         <v>91</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="T3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -44338,7 +44424,7 @@
         <v>128</v>
       </c>
       <c r="X3" s="87" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="Y3" s="87" t="b">
         <v>0</v>
@@ -44350,7 +44436,7 @@
         <v>171</v>
       </c>
       <c r="AB3" s="87" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AC3" s="87" t="s">
         <v>174</v>
@@ -44374,7 +44460,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="87" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AK3" s="86" t="s">
         <v>330</v>
@@ -44402,7 +44488,7 @@
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="87" t="s">
@@ -44432,7 +44518,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="T4" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -44445,14 +44531,14 @@
       <c r="V4" s="87"/>
       <c r="W4" s="87"/>
       <c r="X4" s="87" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="Y4" s="87"/>
       <c r="Z4" s="87" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AA4" s="87" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AB4" s="87"/>
       <c r="AC4" s="87" t="s">
@@ -44491,15 +44577,15 @@
       </c>
       <c r="D5" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A5,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-app</v>
+        <v>fwl-vcn_fwl-ha</v>
       </c>
       <c r="E5" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,9,4,1,"Subnets")))</f>
-        <v>prod-app-rt</v>
+        <v>fwl-ha-rt</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="87" t="s">
@@ -44517,7 +44603,7 @@
       </c>
       <c r="N5" s="87"/>
       <c r="O5" s="87" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="P5" s="88"/>
       <c r="Q5" s="87"/>
@@ -44534,7 +44620,7 @@
       <c r="X5" s="87"/>
       <c r="Y5" s="87"/>
       <c r="Z5" s="87" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AA5" s="87"/>
       <c r="AB5" s="87"/>
@@ -44570,15 +44656,15 @@
       </c>
       <c r="D6" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A6,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-svc</v>
+        <v>prod-vcn_prod-app</v>
       </c>
       <c r="E6" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,9,4,1,"Subnets")))</f>
-        <v>prod-svc-rt</v>
+        <v>prod-app-rt</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
@@ -44594,7 +44680,7 @@
       </c>
       <c r="N6" s="87"/>
       <c r="O6" s="87" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="P6" s="88"/>
       <c r="Q6" s="87"/>
@@ -44643,15 +44729,15 @@
       </c>
       <c r="D7" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A7,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-db</v>
+        <v>prod-vcn_prod-svc</v>
       </c>
       <c r="E7" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,9,4,1,"Subnets")))</f>
-        <v>prod-db-rt</v>
+        <v>prod-svc-rt</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
@@ -44667,7 +44753,7 @@
       </c>
       <c r="N7" s="87"/>
       <c r="O7" s="87" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="P7" s="88"/>
       <c r="Q7" s="87"/>
@@ -44714,15 +44800,15 @@
       </c>
       <c r="D8" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A8,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-dmz</v>
+        <v>prod-vcn_prod-db</v>
       </c>
       <c r="E8" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,9,4,1,"Subnets")))</f>
-        <v>nonprod-dmz-rt</v>
+        <v>prod-db-rt</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87"/>
@@ -44783,15 +44869,15 @@
       </c>
       <c r="D9" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A9,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-app</v>
+        <v>nonprod-vcn_nonprod-dmz</v>
       </c>
       <c r="E9" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,9,4,1,"Subnets")))</f>
-        <v>nonprod-app-rt</v>
+        <v>nonprod-dmz-rt</v>
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
@@ -44852,15 +44938,15 @@
       </c>
       <c r="D10" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A10,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-svc</v>
+        <v>nonprod-vcn_nonprod-app</v>
       </c>
       <c r="E10" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,9,4,1,"Subnets")))</f>
-        <v>nonprod-svc-rt</v>
+        <v>nonprod-app-rt</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
@@ -44921,15 +45007,15 @@
       </c>
       <c r="D11" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A11,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-db</v>
+        <v>nonprod-vcn_nonprod-svc</v>
       </c>
       <c r="E11" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,9,4,1,"Subnets")))</f>
-        <v>nonprod-db-rt</v>
+        <v>nonprod-svc-rt</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -44990,15 +45076,15 @@
       </c>
       <c r="D12" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A12,4,4,1,"Subnets")))</f>
-        <v/>
+        <v>nonprod-vcn_nonprod-db</v>
       </c>
       <c r="E12" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,9,4,1,"Subnets")))</f>
-        <v/>
+        <v>nonprod-db-rt</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
@@ -45065,7 +45151,7 @@
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
@@ -45132,7 +45218,7 @@
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="87" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
@@ -45266,7 +45352,7 @@
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="87" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
@@ -45333,7 +45419,7 @@
       </c>
       <c r="F17" s="87"/>
       <c r="G17" s="87" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -45400,7 +45486,7 @@
       </c>
       <c r="F18" s="87"/>
       <c r="G18" s="87" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
@@ -45467,7 +45553,7 @@
       </c>
       <c r="F19" s="87"/>
       <c r="G19" s="87" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
@@ -45534,7 +45620,7 @@
       </c>
       <c r="F20" s="87"/>
       <c r="G20" s="87" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
@@ -45601,7 +45687,7 @@
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="87" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
@@ -45668,7 +45754,7 @@
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="87" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H22" s="87"/>
       <c r="I22" s="87"/>
@@ -45735,7 +45821,7 @@
       </c>
       <c r="F23" s="87"/>
       <c r="G23" s="87" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
@@ -45802,7 +45888,7 @@
       </c>
       <c r="F24" s="87"/>
       <c r="G24" s="87" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
@@ -47359,10 +47445,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>800</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>801</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>802</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -47372,10 +47458,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>837</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>838</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>839</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -47385,10 +47471,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -47767,10 +47853,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="42">
       <c r="A1" s="84" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -48283,16 +48369,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>804</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>805</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -48304,7 +48390,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -48528,7 +48614,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -48540,7 +48626,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -48588,7 +48674,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -48612,7 +48698,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -48624,7 +48710,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -48672,7 +48758,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -48684,7 +48770,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -48696,7 +48782,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -48708,7 +48794,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -48720,7 +48806,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -48732,7 +48818,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -48744,7 +48830,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -48780,7 +48866,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -48792,7 +48878,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -48804,7 +48890,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -48816,7 +48902,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -48968,7 +49054,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -48980,7 +49066,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -48992,7 +49078,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -49004,7 +49090,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -49016,7 +49102,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -49027,16 +49113,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D63" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>849</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>850</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -49048,7 +49134,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -49060,7 +49146,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -49072,7 +49158,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -49296,7 +49382,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -49308,7 +49394,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -49320,7 +49406,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -49400,7 +49486,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -49532,7 +49618,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -49544,7 +49630,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -49556,7 +49642,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -49568,7 +49654,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -49580,7 +49666,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -49592,7 +49678,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -49604,7 +49690,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -49616,7 +49702,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -49628,7 +49714,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -49640,7 +49726,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -49652,7 +49738,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -49664,7 +49750,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -49676,7 +49762,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -49688,7 +49774,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -49708,7 +49794,7 @@
         <v>695</v>
       </c>
       <c r="E117" s="111" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -49792,7 +49878,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="111" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -49816,7 +49902,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="111" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -49828,7 +49914,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="111" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -49840,7 +49926,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="111" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -49888,7 +49974,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -49900,7 +49986,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -49912,7 +49998,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -50040,7 +50126,7 @@
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -50052,7 +50138,7 @@
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -50064,7 +50150,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -50076,7 +50162,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -50088,7 +50174,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -50100,7 +50186,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -50112,7 +50198,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -50124,7 +50210,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -50136,7 +50222,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -50148,7 +50234,7 @@
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -50160,7 +50246,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -50172,7 +50258,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -50183,16 +50269,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D156" s="38" t="s">
+        <v>813</v>
+      </c>
+      <c r="E156" s="38" t="s">
         <v>814</v>
-      </c>
-      <c r="E156" s="38" t="s">
-        <v>815</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -50203,16 +50289,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="103" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -50224,7 +50310,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -50268,7 +50354,7 @@
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
@@ -50556,7 +50642,7 @@
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
@@ -50568,7 +50654,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -50580,7 +50666,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -50592,7 +50678,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -50604,7 +50690,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -50616,7 +50702,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -50628,7 +50714,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -50640,7 +50726,7 @@
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
@@ -50688,7 +50774,7 @@
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
@@ -50700,7 +50786,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -50708,7 +50794,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
       <c r="E198" s="38" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -50935,7 +51021,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -50989,16 +51075,16 @@
         <v>418</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>815</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>816</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>817</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -51008,7 +51094,7 @@
         <v>418</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="29">
@@ -51019,16 +51105,16 @@
         <v>418</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>818</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>819</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>820</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -51038,7 +51124,7 @@
         <v>418</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -51354,7 +51440,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -51381,7 +51467,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -51416,7 +51502,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
@@ -51437,7 +51523,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="38"/>
@@ -51471,7 +51557,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="34"/>
@@ -51505,7 +51591,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
@@ -51628,14 +51714,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
       <c r="D1" s="116"/>
       <c r="E1" s="116"/>
       <c r="F1" s="115" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G1" s="116"/>
     </row>
@@ -51647,19 +51733,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="80" t="s">
+        <v>827</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>828</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="80" t="s">
         <v>829</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>830</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="82" t="s">
         <v>831</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -51673,16 +51759,16 @@
         <v>748</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29">
@@ -51696,10 +51782,10 @@
         <v>748</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -51715,10 +51801,10 @@
         <v>748</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -52007,7 +52093,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -52037,7 +52123,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -52135,7 +52221,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>36</v>
@@ -52144,7 +52230,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -52166,7 +52252,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -52188,7 +52274,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -52210,7 +52296,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -52232,7 +52318,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1066">
   <si>
     <t>Region</t>
   </si>
@@ -6757,9 +6757,6 @@
   </si>
   <si>
     <t>bmdb</t>
-  </si>
-  <si>
-    <t>ssh-rsa AAAAB3NzaC1yc2EAAAABJQAAAQEAxQXVLKYOfEPNY6/psWxXWNIN23SFRkaHO2vlUQ3b3vv9k5OO5Di5qmzJ+hZoTifYw+4oyYs0vsPgccy8uz7eJTso2gyk4g7eKMEbmQdDbdPb1K8v1EdF11LfjnImepDDGRNgabhjfS4R/FAA0BTj8xAOjnRsBRD2FrYcVyoxvunKce1V5o3CtgqNlcLrSf+PJb++AW/K5BeLFpJMFCJXSC3QuL0ltYVUp/weA7L/yGOGCSJsv8JzaEekXgGHtuGvpibphYBKtk4sqc6AOWcWGT/6kx7Ntvpg+exdkqGQSDz1krcRyZyQpkQTSaq0Xcld1YZ4u8g5gAl/zDs+7ABRVw== rsa-key-20211111</t>
   </si>
   <si>
     <t xml:space="preserve">18.12.0.0 </t>
@@ -11535,7 +11532,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11546,7 +11543,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -11678,7 +11675,7 @@
         <v>878</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>52</v>
@@ -11732,7 +11729,7 @@
         <v>879</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>52</v>
@@ -11786,7 +11783,7 @@
         <v>880</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>52</v>
@@ -11837,10 +11834,10 @@
         <v>870</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>52</v>
@@ -11852,10 +11849,10 @@
         <v>36</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>23</v>
@@ -23718,7 +23715,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -23971,7 +23968,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E5" s="107" t="s">
         <v>1007</v>
@@ -24020,7 +24017,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>1009</v>
+        <v>104</v>
       </c>
       <c r="V5" s="40" t="s">
         <v>344</v>
@@ -36260,7 +36257,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -36368,7 +36365,7 @@
         <v>98</v>
       </c>
       <c r="P2" s="112" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Q2" s="102" t="s">
         <v>444</v>
@@ -36412,7 +36409,7 @@
         <v>432</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>1004</v>
@@ -36427,7 +36424,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>437</v>
@@ -43423,7 +43420,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>436</v>
@@ -43443,7 +43440,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -43460,7 +43457,7 @@
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -43477,7 +43474,7 @@
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -43511,7 +43508,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
@@ -43528,7 +43525,7 @@
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
@@ -43545,7 +43542,7 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
@@ -43562,7 +43559,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -43577,7 +43574,7 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -48782,7 +48779,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -48794,7 +48791,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -48806,7 +48803,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -48818,7 +48815,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -48830,7 +48827,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -48866,7 +48863,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -49382,7 +49379,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -49394,7 +49391,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -49406,7 +49403,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -49642,7 +49639,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -49654,7 +49651,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -49666,7 +49663,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -49678,7 +49675,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -49690,7 +49687,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -49702,7 +49699,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -49714,7 +49711,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -49726,7 +49723,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -49738,7 +49735,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -50150,7 +50147,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -50162,7 +50159,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -50174,7 +50171,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -50186,7 +50183,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -50198,7 +50195,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -50210,7 +50207,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -50222,7 +50219,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -50258,7 +50255,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -50654,7 +50651,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -50666,7 +50663,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -50678,7 +50675,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -50690,7 +50687,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -50702,7 +50699,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -50714,7 +50711,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -50786,7 +50783,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -50794,7 +50791,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
       <c r="E198" s="38" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -51440,7 +51437,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -51467,7 +51464,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -23715,7 +23715,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -51693,7 +51693,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -11532,7 +11532,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20551,8 +20551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="F2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20967,7 +20967,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -21848,7 +21848,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -23309,7 +23309,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -23714,8 +23714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:Z1"/>
+    <sheetView topLeftCell="M1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -30082,7 +30082,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1000">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="P3:P1000">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1000">
@@ -36257,7 +36257,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -43207,11 +43207,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J5 N6:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q1048576">
@@ -43225,6 +43225,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576">
       <formula1>nchar_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="J3:J1000">
+      <formula1>db_sersion_drop</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43273,7 +43276,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
@@ -11532,7 +11532,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -6901,77 +6901,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v9
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
 Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
@@ -7164,6 +7093,77 @@
   </si>
   <si>
     <t>fwl-ha-rt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v9.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11532,7 +11532,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11543,7 +11543,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -11675,7 +11675,7 @@
         <v>878</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>52</v>
@@ -11729,7 +11729,7 @@
         <v>879</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>52</v>
@@ -11783,7 +11783,7 @@
         <v>880</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>52</v>
@@ -11834,10 +11834,10 @@
         <v>870</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>52</v>
@@ -11849,10 +11849,10 @@
         <v>36</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>23</v>
@@ -36365,7 +36365,7 @@
         <v>98</v>
       </c>
       <c r="P2" s="112" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Q2" s="102" t="s">
         <v>444</v>
@@ -51440,7 +51440,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -7108,7 +7108,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -7129,28 +7129,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v9.0
+      <t xml:space="preserve">Release - v9.0
 </t>
     </r>
     <r>
@@ -11548,7 +11527,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -116,7 +116,7 @@
     <definedName name="VM_Shapes" localSheetId="27">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="6">#REF!</definedName>
-    <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AA$397:$AA$407</definedName>
+    <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AB$397:$AB$407</definedName>
     <definedName name="VM_shapes_drop" localSheetId="10">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="6">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="30">[3]Database_Dropdown!$A$2:$A$7</definedName>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1066">
   <si>
     <t>Region</t>
   </si>
@@ -23691,10 +23691,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -23717,12 +23717,13 @@
     <col min="21" max="23" width="20.453125" style="39"/>
     <col min="24" max="24" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.1796875" style="39" customWidth="1"/>
-    <col min="26" max="26" width="20.453125" style="39"/>
-    <col min="27" max="27" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="20.453125" style="39"/>
+    <col min="26" max="26" width="13.54296875" style="39" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" style="39"/>
+    <col min="28" max="28" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="20.453125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="55" customFormat="1" ht="135.75" customHeight="1">
+    <row r="1" spans="1:27" s="55" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="115" t="s">
         <v>598</v>
       </c>
@@ -23750,9 +23751,10 @@
       <c r="W1" s="116"/>
       <c r="X1" s="116"/>
       <c r="Y1" s="116"/>
-      <c r="Z1" s="117"/>
-    </row>
-    <row r="2" spans="1:26" s="66" customFormat="1" ht="43.5">
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="117"/>
+    </row>
+    <row r="2" spans="1:27" s="66" customFormat="1" ht="43.5">
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
@@ -23829,10 +23831,13 @@
         <v>596</v>
       </c>
       <c r="Z2" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="69" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -23861,8 +23866,9 @@
       <c r="X3" s="40"/>
       <c r="Y3" s="40"/>
       <c r="Z3" s="40"/>
-    </row>
-    <row r="4" spans="1:26" ht="29">
+      <c r="AA3" s="40"/>
+    </row>
+    <row r="4" spans="1:27" ht="29">
       <c r="A4" s="106" t="s">
         <v>325</v>
       </c>
@@ -23935,8 +23941,9 @@
         <v>597</v>
       </c>
       <c r="Z4" s="40"/>
-    </row>
-    <row r="5" spans="1:26" ht="29">
+      <c r="AA4" s="40"/>
+    </row>
+    <row r="5" spans="1:27" ht="29">
       <c r="A5" s="108" t="s">
         <v>325</v>
       </c>
@@ -24011,8 +24018,9 @@
         <v>597</v>
       </c>
       <c r="Z5" s="40"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="40"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="106"/>
       <c r="B6" s="106"/>
       <c r="C6" s="106"/>
@@ -24039,8 +24047,9 @@
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="40"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="106"/>
       <c r="B7" s="106"/>
       <c r="C7" s="106"/>
@@ -24067,56 +24076,57 @@
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="40"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="60"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="60"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="60"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="60"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="60"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="60"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -30028,47 +30038,32 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A1:AA1"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1001:S1048576">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1001:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1001:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1001:P1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1001:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1001:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1001:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576">
       <formula1>nchar_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1000">
-      <formula1>nchar_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1000">
-      <formula1>char_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1000">
-      <formula1>workload_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="P3:P1000">
       <formula1>db_sersion_drop</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1000">
-      <formula1>license_type_drop</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1000">
-      <formula1>software_drop</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="1066">
   <si>
     <t>Region</t>
   </si>
@@ -7689,7 +7689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8016,6 +8016,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -51667,10 +51673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -51682,11 +51688,12 @@
     <col min="5" max="5" width="23.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.1796875" style="39" customWidth="1"/>
-    <col min="8" max="18" width="8.6328125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="8.6328125" style="39" customWidth="1"/>
     <col min="19" max="16384" width="8.6328125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="222" customHeight="1">
+    <row r="1" spans="1:8" ht="222" customHeight="1">
       <c r="A1" s="115" t="s">
         <v>835</v>
       </c>
@@ -51694,12 +51701,13 @@
       <c r="C1" s="116"/>
       <c r="D1" s="116"/>
       <c r="E1" s="116"/>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="135" t="s">
         <v>836</v>
       </c>
-      <c r="G1" s="116"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
@@ -51721,8 +51729,11 @@
       <c r="G2" s="82" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
         <v>325</v>
       </c>
@@ -51744,8 +51755,9 @@
       <c r="G3" s="38" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="29">
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="38" t="s">
         <v>325</v>
       </c>
@@ -51763,8 +51775,9 @@
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="29">
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="38" t="s">
         <v>325</v>
       </c>
@@ -51782,8 +51795,9 @@
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
@@ -51793,8 +51807,9 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -51802,8 +51817,9 @@
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" s="83" customFormat="1">
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" s="83" customFormat="1">
       <c r="A8" s="68"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -51811,8 +51827,9 @@
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
-    </row>
-    <row r="9" spans="1:7" s="83" customFormat="1">
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" s="83" customFormat="1">
       <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -51820,8 +51837,9 @@
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -51829,8 +51847,9 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -51838,8 +51857,9 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -51847,8 +51867,9 @@
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -51856,8 +51877,9 @@
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -51865,8 +51887,9 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -51874,8 +51897,9 @@
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -51883,8 +51907,9 @@
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -51892,8 +51917,9 @@
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -51901,8 +51927,9 @@
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -51910,8 +51937,9 @@
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -51919,8 +51947,9 @@
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -51928,8 +51957,9 @@
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -51937,8 +51967,9 @@
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -51946,8 +51977,9 @@
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -51955,8 +51987,9 @@
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -51964,8 +51997,9 @@
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -51973,8 +52007,9 @@
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -51982,8 +52017,9 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -51991,8 +52027,9 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -52000,8 +52037,9 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -52009,8 +52047,9 @@
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -52018,8 +52057,9 @@
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -52027,11 +52067,12 @@
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196146D-8D33-494D-B8FF-C21C6F5D2BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06AD8C-BBA5-C54B-B78D-1BF9CC5D4FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1070">
   <si>
     <t>Region</t>
   </si>
@@ -4816,77 +4816,6 @@
   </si>
   <si>
     <r>
-      <t>Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 "Attached To Instance"  - </t>
     </r>
@@ -7149,6 +7078,192 @@
   </si>
   <si>
     <t>Reserved IPs (Y|N|OCID)</t>
+  </si>
+  <si>
+    <t>Memory In GBs</t>
+  </si>
+  <si>
+    <t>Boot Volume Size In GBs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is PV Encryption In Transit Enabled </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+Is PV Encryption In Transit Enabled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when left empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11509,7 +11624,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -11635,28 +11750,28 @@
         <v>365</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>23</v>
@@ -11689,28 +11804,28 @@
         <v>365</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>23</v>
@@ -11743,13 +11858,13 @@
         <v>365</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>52</v>
@@ -11761,10 +11876,10 @@
         <v>36</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>23</v>
@@ -11797,13 +11912,13 @@
         <v>365</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>52</v>
@@ -11815,10 +11930,10 @@
         <v>36</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>23</v>
@@ -11850,10 +11965,10 @@
         <v>365</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>56</v>
@@ -11868,10 +11983,10 @@
         <v>36</v>
       </c>
       <c r="I7" s="40" t="s">
+        <v>751</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>752</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>753</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>23</v>
@@ -11904,13 +12019,13 @@
         <v>365</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>753</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>754</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>755</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>52</v>
@@ -11922,10 +12037,10 @@
         <v>36</v>
       </c>
       <c r="I8" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>756</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>757</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>23</v>
@@ -11958,13 +12073,13 @@
         <v>365</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D9" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>758</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>759</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>52</v>
@@ -11976,10 +12091,10 @@
         <v>36</v>
       </c>
       <c r="I9" s="40" t="s">
+        <v>759</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>760</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>761</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>23</v>
@@ -12012,10 +12127,10 @@
         <v>365</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>392</v>
@@ -12024,16 +12139,16 @@
         <v>52</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="40" t="s">
+        <v>762</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>763</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>764</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>23</v>
@@ -12066,10 +12181,10 @@
         <v>365</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>393</v>
@@ -12084,10 +12199,10 @@
         <v>36</v>
       </c>
       <c r="I11" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>766</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>767</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>23</v>
@@ -12120,10 +12235,10 @@
         <v>365</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>396</v>
@@ -12138,10 +12253,10 @@
         <v>36</v>
       </c>
       <c r="I12" s="40" t="s">
+        <v>768</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>769</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>770</v>
       </c>
       <c r="K12" s="40" t="s">
         <v>23</v>
@@ -12174,13 +12289,13 @@
         <v>365</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D13" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" s="40" t="s">
         <v>771</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>772</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>52</v>
@@ -12192,10 +12307,10 @@
         <v>36</v>
       </c>
       <c r="I13" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>773</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>774</v>
       </c>
       <c r="K13" s="40" t="s">
         <v>23</v>
@@ -17495,7 +17610,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -17515,25 +17630,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>828</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>829</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>443</v>
@@ -17548,23 +17663,23 @@
         <v>365</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
@@ -19461,13 +19576,13 @@
         <v>365</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>775</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>776</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>400</v>
@@ -19481,7 +19596,7 @@
         <v>401</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -19494,7 +19609,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -19507,13 +19622,13 @@
         <v>365</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>400</v>
@@ -19522,7 +19637,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>29</v>
@@ -19540,7 +19655,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -19553,13 +19668,13 @@
         <v>365</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>400</v>
@@ -19568,10 +19683,10 @@
         <v>80</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -19586,7 +19701,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -19599,13 +19714,13 @@
         <v>365</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>400</v>
@@ -19619,7 +19734,7 @@
         <v>401</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -19632,7 +19747,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -19645,13 +19760,13 @@
         <v>365</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>400</v>
@@ -19660,10 +19775,10 @@
         <v>80</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -19678,7 +19793,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -19691,13 +19806,13 @@
         <v>365</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>400</v>
@@ -19706,10 +19821,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -19724,7 +19839,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -19737,13 +19852,13 @@
         <v>365</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>400</v>
@@ -19757,7 +19872,7 @@
         <v>401</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -19770,7 +19885,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -19783,13 +19898,13 @@
         <v>365</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>400</v>
@@ -19800,10 +19915,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>791</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>792</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -19816,7 +19931,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -19829,13 +19944,13 @@
         <v>365</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>400</v>
@@ -19844,10 +19959,10 @@
         <v>80</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -19862,7 +19977,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -19875,13 +19990,13 @@
         <v>365</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>400</v>
@@ -19890,10 +20005,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -19908,7 +20023,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -19921,13 +20036,13 @@
         <v>365</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>400</v>
@@ -19941,7 +20056,7 @@
         <v>401</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -19954,7 +20069,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -19967,13 +20082,13 @@
         <v>365</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>400</v>
@@ -19984,10 +20099,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>791</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>792</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -20000,7 +20115,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -20013,13 +20128,13 @@
         <v>365</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>400</v>
@@ -20028,10 +20143,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -20046,7 +20161,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -20059,13 +20174,13 @@
         <v>365</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>400</v>
@@ -20074,10 +20189,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -20092,7 +20207,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -20509,10 +20624,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20526,18 +20641,18 @@
     <col min="7" max="7" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.83203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="39" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="10" max="13" width="22.1640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="39" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -20547,7 +20662,7 @@
       <c r="G1" s="125"/>
       <c r="H1" s="126"/>
       <c r="I1" s="115" t="s">
-        <v>593</v>
+        <v>1069</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -20555,9 +20670,12 @@
       <c r="M1" s="116"/>
       <c r="N1" s="116"/>
       <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
-    </row>
-    <row r="2" spans="1:16" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="117"/>
+    </row>
+    <row r="2" spans="1:19" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -20589,25 +20707,34 @@
         <v>86</v>
       </c>
       <c r="K2" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="R2" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="S2" s="32" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -20635,27 +20762,34 @@
       <c r="I3" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="40" t="s">
+      <c r="J3" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="40">
+        <v>16</v>
+      </c>
+      <c r="L3" s="40">
+        <v>55</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="O3" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="P3" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="S3" s="38" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -20673,9 +20807,12 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -20704,20 +20841,23 @@
       <c r="J5" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="O5" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
@@ -20746,20 +20886,23 @@
       <c r="J6" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="O6" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>5</v>
       </c>
@@ -20788,26 +20931,29 @@
       <c r="J7" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="O7" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40" t="s">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L10" s="94"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O10" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20842,25 +20988,43 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$S$2:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L500</xm:sqref>
+          <xm:sqref>O3:O500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000005000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B501,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3 M3</xm:sqref>
+          <xm:sqref>P3 B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000007000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 M4</xm:sqref>
+          <xm:sqref>P4 B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000009000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B502,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B500 M5:M500</xm:sqref>
+          <xm:sqref>P5:P500 B5:B500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W501,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W500,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000010000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W502,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R5:R500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-0F00-00000B000000}">
           <x14:formula1>
@@ -20879,24 +21043,6 @@
             <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$D$2:D502,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T501,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T500,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000010000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T502,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O5:O500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -20927,7 +21073,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -21208,7 +21354,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -21247,7 +21393,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -21272,7 +21418,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>127</v>
@@ -21296,7 +21442,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>129</v>
@@ -21333,7 +21479,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -21366,7 +21512,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>134</v>
@@ -21405,7 +21551,7 @@
         <v>133</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>136</v>
@@ -21442,7 +21588,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -21551,13 +21697,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>889</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>890</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>140</v>
@@ -21569,7 +21715,7 @@
         <v>98</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>142</v>
@@ -21836,10 +21982,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>599</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>600</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>417</v>
@@ -21851,10 +21997,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>601</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>602</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>417</v>
@@ -21869,7 +22015,7 @@
         <v>365</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>417</v>
@@ -21881,10 +22027,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>604</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>605</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>417</v>
@@ -22113,7 +22259,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>159</v>
@@ -23691,7 +23837,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="55" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -23734,31 +23880,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F2" s="69" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="69" t="s">
+        <v>958</v>
+      </c>
+      <c r="H2" s="69" t="s">
         <v>959</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="I2" s="69" t="s">
         <v>960</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>961</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="K2" s="95" t="s">
         <v>962</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="69" t="s">
         <v>963</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="M2" s="70" t="s">
         <v>964</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>965</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>424</v>
@@ -23776,10 +23922,10 @@
         <v>427</v>
       </c>
       <c r="S2" s="69" t="s">
+        <v>965</v>
+      </c>
+      <c r="T2" s="69" t="s">
         <v>966</v>
-      </c>
-      <c r="T2" s="69" t="s">
-        <v>967</v>
       </c>
       <c r="U2" s="69" t="s">
         <v>96</v>
@@ -23791,10 +23937,10 @@
         <v>331</v>
       </c>
       <c r="X2" s="69" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Y2" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z2" s="69" t="s">
         <v>98</v>
@@ -23839,16 +23985,16 @@
         <v>324</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="106" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>1002</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>1003</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>348</v>
@@ -23871,7 +24017,7 @@
         <v>337</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O4" s="56" t="s">
         <v>338</v>
@@ -23904,7 +24050,7 @@
         <v>15</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Z4" s="40"/>
       <c r="AA4" s="40"/>
@@ -23914,16 +24060,16 @@
         <v>324</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>351</v>
@@ -23948,7 +24094,7 @@
         <v>337</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O5" s="56" t="s">
         <v>353</v>
@@ -23981,7 +24127,7 @@
         <v>15</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Z5" s="40"/>
       <c r="AA5" s="40"/>
@@ -30119,7 +30265,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -30137,7 +30283,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>85</v>
@@ -30146,10 +30292,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="95" t="s">
+        <v>978</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>979</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>980</v>
       </c>
       <c r="H2" s="98" t="s">
         <v>443</v>
@@ -30172,7 +30318,7 @@
         <v>324</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>431</v>
@@ -30181,7 +30327,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -36232,7 +36378,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -36266,46 +36412,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D2" s="70" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2" s="95" t="s">
         <v>983</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>984</v>
       </c>
       <c r="F2" s="95" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>424</v>
       </c>
       <c r="J2" s="95" t="s">
+        <v>984</v>
+      </c>
+      <c r="K2" s="95" t="s">
         <v>985</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="95" t="s">
         <v>986</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>987</v>
       </c>
       <c r="M2" s="95" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O2" s="112" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="112" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q2" s="102" t="s">
         <v>443</v>
@@ -36343,19 +36489,19 @@
         <v>324</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>431</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G4" s="110">
         <v>4</v>
@@ -36364,7 +36510,7 @@
         <v>337</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>436</v>
@@ -36379,7 +36525,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P4" s="40"/>
       <c r="Q4" s="38" t="s">
@@ -43236,22 +43382,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>432</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>357</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>331</v>
@@ -43260,13 +43406,13 @@
         <v>330</v>
       </c>
       <c r="I1" s="97" t="s">
+        <v>962</v>
+      </c>
+      <c r="J1" s="97" t="s">
         <v>963</v>
       </c>
-      <c r="J1" s="97" t="s">
-        <v>964</v>
-      </c>
       <c r="K1" s="62" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -43298,7 +43444,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -43306,7 +43452,7 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>434</v>
@@ -43333,7 +43479,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -43341,7 +43487,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="96" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>352</v>
@@ -43363,7 +43509,7 @@
         <v>348</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>435</v>
@@ -43383,7 +43529,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -43396,11 +43542,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="96" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -43413,11 +43559,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="96" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -43451,7 +43597,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
@@ -43464,11 +43610,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="96" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
@@ -43485,11 +43631,11 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
@@ -43502,7 +43648,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -43517,7 +43663,7 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -44051,91 +44197,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="85" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>891</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="C1" s="93" t="s">
         <v>892</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="D1" s="93" t="s">
         <v>893</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>894</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="93" t="s">
         <v>895</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>896</v>
       </c>
       <c r="G1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="93" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1" s="93" t="s">
         <v>897</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="J1" s="93" t="s">
         <v>898</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="K1" s="93" t="s">
         <v>899</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="L1" s="93" t="s">
         <v>900</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="M1" s="93" t="s">
+        <v>952</v>
+      </c>
+      <c r="N1" s="93" t="s">
         <v>901</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="O1" s="93" t="s">
+        <v>902</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>904</v>
+      </c>
+      <c r="R1" s="93" t="s">
+        <v>905</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>906</v>
+      </c>
+      <c r="T1" s="93" t="s">
+        <v>954</v>
+      </c>
+      <c r="U1" s="93" t="s">
+        <v>907</v>
+      </c>
+      <c r="V1" s="84" t="s">
+        <v>908</v>
+      </c>
+      <c r="W1" s="84" t="s">
+        <v>909</v>
+      </c>
+      <c r="X1" s="84" t="s">
+        <v>910</v>
+      </c>
+      <c r="Y1" s="93" t="s">
         <v>953</v>
-      </c>
-      <c r="N1" s="93" t="s">
-        <v>902</v>
-      </c>
-      <c r="O1" s="93" t="s">
-        <v>903</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>904</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>905</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>906</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>907</v>
-      </c>
-      <c r="T1" s="93" t="s">
-        <v>955</v>
-      </c>
-      <c r="U1" s="93" t="s">
-        <v>908</v>
-      </c>
-      <c r="V1" s="84" t="s">
-        <v>909</v>
-      </c>
-      <c r="W1" s="84" t="s">
-        <v>910</v>
-      </c>
-      <c r="X1" s="84" t="s">
-        <v>911</v>
-      </c>
-      <c r="Y1" s="93" t="s">
-        <v>954</v>
       </c>
       <c r="Z1" s="84" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="84" t="s">
+        <v>911</v>
+      </c>
+      <c r="AB1" s="84" t="s">
         <v>912</v>
       </c>
-      <c r="AB1" s="84" t="s">
+      <c r="AC1" s="84" t="s">
         <v>913</v>
-      </c>
-      <c r="AC1" s="84" t="s">
-        <v>914</v>
       </c>
       <c r="AD1" s="84" t="s">
         <v>253</v>
@@ -44156,7 +44302,7 @@
         <v>258</v>
       </c>
       <c r="AJ1" s="84" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AK1" s="84" t="s">
         <v>323</v>
@@ -44188,7 +44334,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>39</v>
@@ -44211,13 +44357,13 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O2" s="87" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Q2" s="87" t="s">
         <v>364</v>
@@ -44237,13 +44383,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="87" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="W2" s="87" t="s">
         <v>130</v>
       </c>
       <c r="X2" s="87" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Y2" s="87" t="b">
         <v>1</v>
@@ -44252,7 +44398,7 @@
         <v>148</v>
       </c>
       <c r="AA2" s="87" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AB2" s="87" t="s">
         <v>171</v>
@@ -44318,7 +44464,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -44332,7 +44478,7 @@
         <v>DRG</v>
       </c>
       <c r="N3" s="87" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O3" s="87" t="s">
         <v>400</v>
@@ -44347,7 +44493,7 @@
         <v>91</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="T3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -44364,7 +44510,7 @@
         <v>128</v>
       </c>
       <c r="X3" s="87" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="Y3" s="87" t="b">
         <v>0</v>
@@ -44376,7 +44522,7 @@
         <v>170</v>
       </c>
       <c r="AB3" s="87" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AC3" s="87" t="s">
         <v>173</v>
@@ -44400,7 +44546,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="87" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AK3" s="86" t="s">
         <v>329</v>
@@ -44428,7 +44574,7 @@
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="87" t="s">
@@ -44458,7 +44604,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T4" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -44471,14 +44617,14 @@
       <c r="V4" s="87"/>
       <c r="W4" s="87"/>
       <c r="X4" s="87" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="Y4" s="87"/>
       <c r="Z4" s="87" t="s">
+        <v>926</v>
+      </c>
+      <c r="AA4" s="87" t="s">
         <v>927</v>
-      </c>
-      <c r="AA4" s="87" t="s">
-        <v>928</v>
       </c>
       <c r="AB4" s="87"/>
       <c r="AC4" s="87" t="s">
@@ -44525,7 +44671,7 @@
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="87" t="s">
@@ -44543,7 +44689,7 @@
       </c>
       <c r="N5" s="87"/>
       <c r="O5" s="87" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="P5" s="88"/>
       <c r="Q5" s="87"/>
@@ -44560,7 +44706,7 @@
       <c r="X5" s="87"/>
       <c r="Y5" s="87"/>
       <c r="Z5" s="87" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA5" s="87"/>
       <c r="AB5" s="87"/>
@@ -44604,7 +44750,7 @@
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
@@ -44620,7 +44766,7 @@
       </c>
       <c r="N6" s="87"/>
       <c r="O6" s="87" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P6" s="88"/>
       <c r="Q6" s="87"/>
@@ -44677,7 +44823,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
@@ -44693,7 +44839,7 @@
       </c>
       <c r="N7" s="87"/>
       <c r="O7" s="87" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="P7" s="88"/>
       <c r="Q7" s="87"/>
@@ -44748,7 +44894,7 @@
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87"/>
@@ -44817,7 +44963,7 @@
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
@@ -44886,7 +45032,7 @@
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
@@ -44955,7 +45101,7 @@
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -45024,7 +45170,7 @@
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
@@ -45091,7 +45237,7 @@
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
@@ -45158,7 +45304,7 @@
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="87" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
@@ -45292,7 +45438,7 @@
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="87" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
@@ -45359,7 +45505,7 @@
       </c>
       <c r="F17" s="87"/>
       <c r="G17" s="87" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -45426,7 +45572,7 @@
       </c>
       <c r="F18" s="87"/>
       <c r="G18" s="87" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
@@ -45493,7 +45639,7 @@
       </c>
       <c r="F19" s="87"/>
       <c r="G19" s="87" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
@@ -45560,7 +45706,7 @@
       </c>
       <c r="F20" s="87"/>
       <c r="G20" s="87" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
@@ -45627,7 +45773,7 @@
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="87" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
@@ -45694,7 +45840,7 @@
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="87" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H22" s="87"/>
       <c r="I22" s="87"/>
@@ -45761,7 +45907,7 @@
       </c>
       <c r="F23" s="87"/>
       <c r="G23" s="87" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
@@ -45828,7 +45974,7 @@
       </c>
       <c r="F24" s="87"/>
       <c r="G24" s="87" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
@@ -47307,10 +47453,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>606</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>607</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
@@ -47320,10 +47466,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>609</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
@@ -47333,10 +47479,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>610</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>611</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
@@ -47346,10 +47492,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>612</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>613</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
@@ -47359,10 +47505,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>614</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>615</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -47372,10 +47518,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>616</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>617</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -47385,10 +47531,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>798</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>799</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>800</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -47398,10 +47544,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>835</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>836</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>837</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -47411,10 +47557,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>999</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1000</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -47793,10 +47939,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -48309,16 +48455,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>801</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>802</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>803</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -48330,7 +48476,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -48341,16 +48487,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D5" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>619</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>620</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -48362,7 +48508,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -48374,7 +48520,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -48386,7 +48532,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -48398,7 +48544,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -48410,7 +48556,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -48422,7 +48568,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -48434,7 +48580,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -48446,7 +48592,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -48458,7 +48604,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -48470,7 +48616,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -48482,7 +48628,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -48494,7 +48640,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -48506,7 +48652,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -48518,7 +48664,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -48530,7 +48676,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -48542,7 +48688,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -48554,7 +48700,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -48566,7 +48712,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -48578,7 +48724,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -48590,7 +48736,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -48602,7 +48748,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -48614,7 +48760,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -48626,7 +48772,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -48638,7 +48784,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -48650,7 +48796,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -48662,7 +48808,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -48674,7 +48820,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -48686,7 +48832,7 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -48698,7 +48844,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -48710,7 +48856,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -48722,7 +48868,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -48734,7 +48880,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -48746,7 +48892,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -48758,7 +48904,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -48770,7 +48916,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -48782,7 +48928,7 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -48794,7 +48940,7 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -48806,7 +48952,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -48818,7 +48964,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -48830,7 +48976,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -48842,7 +48988,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -48853,16 +48999,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="111" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D47" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="E47" s="38" t="s">
         <v>645</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>646</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -48874,7 +49020,7 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -48886,7 +49032,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -48898,7 +49044,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -48910,7 +49056,7 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -48922,7 +49068,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -48934,7 +49080,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -48946,7 +49092,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -48958,7 +49104,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -48970,7 +49116,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -48982,7 +49128,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -48994,7 +49140,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -49006,7 +49152,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -49018,7 +49164,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -49030,7 +49176,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -49042,7 +49188,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -49053,16 +49199,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D63" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>847</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>848</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -49074,7 +49220,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -49086,7 +49232,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -49098,7 +49244,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -49109,16 +49255,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D67" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="E67" s="38" t="s">
         <v>658</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>659</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -49130,7 +49276,7 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -49142,7 +49288,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -49154,7 +49300,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -49166,7 +49312,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -49178,7 +49324,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -49190,7 +49336,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -49202,7 +49348,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -49214,7 +49360,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -49226,7 +49372,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -49238,7 +49384,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -49250,7 +49396,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -49262,7 +49408,7 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -49274,7 +49420,7 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -49286,7 +49432,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -49298,7 +49444,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -49310,7 +49456,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -49322,7 +49468,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -49334,7 +49480,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -49346,7 +49492,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -49357,16 +49503,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="111" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D87" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="E87" s="38" t="s">
         <v>677</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>678</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -49378,7 +49524,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -49390,7 +49536,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -49402,7 +49548,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -49414,7 +49560,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -49426,7 +49572,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -49438,7 +49584,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -49450,7 +49596,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -49462,7 +49608,7 @@
       <c r="C95" s="38"/>
       <c r="D95" s="38"/>
       <c r="E95" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -49474,7 +49620,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -49486,7 +49632,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -49498,7 +49644,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -49510,7 +49656,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -49522,7 +49668,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -49534,7 +49680,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -49546,7 +49692,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -49558,7 +49704,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -49570,7 +49716,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -49582,7 +49728,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -49594,7 +49740,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -49606,7 +49752,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -49618,7 +49764,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -49630,7 +49776,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -49642,7 +49788,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -49654,7 +49800,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -49666,7 +49812,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -49678,7 +49824,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -49690,7 +49836,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -49702,7 +49848,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -49714,7 +49860,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -49725,16 +49871,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="111" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E117" s="111" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -49746,7 +49892,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="111" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -49758,7 +49904,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="111" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -49770,7 +49916,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -49782,7 +49928,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -49794,7 +49940,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -49806,7 +49952,7 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
@@ -49818,7 +49964,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="111" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -49830,7 +49976,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="111" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -49842,7 +49988,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="111" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -49854,7 +50000,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="111" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -49866,7 +50012,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="111" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -49878,7 +50024,7 @@
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="111" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -49890,7 +50036,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -49902,7 +50048,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -49914,7 +50060,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -49926,7 +50072,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -49938,7 +50084,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -49949,16 +50095,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C135" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D135" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E135" s="38" t="s">
         <v>706</v>
-      </c>
-      <c r="E135" s="38" t="s">
-        <v>707</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -49970,7 +50116,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -49982,7 +50128,7 @@
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -49994,7 +50140,7 @@
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -50006,7 +50152,7 @@
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -50018,7 +50164,7 @@
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -50030,7 +50176,7 @@
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -50042,7 +50188,7 @@
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -50054,7 +50200,7 @@
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -50066,7 +50212,7 @@
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -50078,7 +50224,7 @@
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -50090,7 +50236,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -50102,7 +50248,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -50114,7 +50260,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -50126,7 +50272,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -50138,7 +50284,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -50150,7 +50296,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -50162,7 +50308,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -50174,7 +50320,7 @@
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -50186,7 +50332,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -50198,7 +50344,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -50209,16 +50355,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D156" s="38" t="s">
+        <v>811</v>
+      </c>
+      <c r="E156" s="38" t="s">
         <v>812</v>
-      </c>
-      <c r="E156" s="38" t="s">
-        <v>813</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -50229,16 +50375,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="103" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D157" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="E157" s="38" t="s">
         <v>996</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>997</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -50250,7 +50396,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -50261,16 +50407,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="111" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -50282,7 +50428,7 @@
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
@@ -50294,7 +50440,7 @@
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
@@ -50306,7 +50452,7 @@
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
@@ -50318,7 +50464,7 @@
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
@@ -50330,7 +50476,7 @@
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
@@ -50342,7 +50488,7 @@
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
@@ -50354,7 +50500,7 @@
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
@@ -50366,7 +50512,7 @@
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
@@ -50378,7 +50524,7 @@
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
@@ -50390,7 +50536,7 @@
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
@@ -50402,7 +50548,7 @@
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
@@ -50414,7 +50560,7 @@
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F171" s="38"/>
       <c r="G171" s="38"/>
@@ -50426,7 +50572,7 @@
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
@@ -50438,7 +50584,7 @@
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
@@ -50450,7 +50596,7 @@
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
@@ -50462,7 +50608,7 @@
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
@@ -50474,7 +50620,7 @@
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
@@ -50486,7 +50632,7 @@
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
@@ -50498,7 +50644,7 @@
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38"/>
@@ -50510,7 +50656,7 @@
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F179" s="38"/>
       <c r="G179" s="38"/>
@@ -50522,7 +50668,7 @@
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F180" s="38"/>
       <c r="G180" s="38"/>
@@ -50534,7 +50680,7 @@
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
@@ -50546,7 +50692,7 @@
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
@@ -50558,7 +50704,7 @@
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
@@ -50570,7 +50716,7 @@
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
@@ -50582,7 +50728,7 @@
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
@@ -50594,7 +50740,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -50606,7 +50752,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -50618,7 +50764,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -50630,7 +50776,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -50642,7 +50788,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -50654,7 +50800,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -50666,7 +50812,7 @@
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
@@ -50678,7 +50824,7 @@
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F193" s="38"/>
       <c r="G193" s="38"/>
@@ -50690,7 +50836,7 @@
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
@@ -50702,7 +50848,7 @@
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
@@ -50714,7 +50860,7 @@
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
@@ -50726,7 +50872,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -50734,7 +50880,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E198" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -50809,7 +50955,7 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
           <x14:formula1>
@@ -50821,13 +50967,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C113 C111 C152 C150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000016000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C107 C41:C43 C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000019000000}">
           <x14:formula1>
@@ -50901,7 +51047,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -50955,16 +51101,16 @@
         <v>417</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>813</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>814</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>815</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -50974,7 +51120,7 @@
         <v>417</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -50985,16 +51131,16 @@
         <v>417</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>817</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>818</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -51004,7 +51150,7 @@
         <v>417</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -51314,7 +51460,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -51341,7 +51487,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -51376,13 +51522,13 @@
         <v>365</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -51397,7 +51543,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="38"/>
@@ -51410,13 +51556,13 @@
         <v>365</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>23</v>
@@ -51431,7 +51577,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="34"/>
@@ -51444,13 +51590,13 @@
         <v>365</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>23</v>
@@ -51465,7 +51611,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
@@ -51589,14 +51735,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
       <c r="D1" s="116"/>
       <c r="E1" s="116"/>
       <c r="F1" s="121" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G1" s="122"/>
       <c r="H1" s="122"/>
@@ -51609,19 +51755,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="80" t="s">
+        <v>825</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>826</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="80" t="s">
         <v>827</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>828</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="82" t="s">
         <v>829</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>830</v>
       </c>
       <c r="H2" s="82" t="s">
         <v>443</v>
@@ -51635,19 +51781,19 @@
         <v>365</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H3" s="40"/>
     </row>
@@ -51659,13 +51805,13 @@
         <v>365</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -51679,13 +51825,13 @@
         <v>365</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -52130,7 +52276,7 @@
         <v>365</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>36</v>
@@ -52139,7 +52285,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -52152,7 +52298,7 @@
         <v>365</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>386</v>
@@ -52161,7 +52307,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -52174,7 +52320,7 @@
         <v>365</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>36</v>
@@ -52183,7 +52329,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -52196,7 +52342,7 @@
         <v>365</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>386</v>
@@ -52205,7 +52351,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -52218,7 +52364,7 @@
         <v>365</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>36</v>
@@ -52227,7 +52373,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -6481,56 +6481,6 @@
     <t>fwl-ha-rt</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Release - v9.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
-</t>
-    </r>
-  </si>
-  <si>
     <t>Shape(10Mbps|100Mbps|400Mbps|8000Mbps|flexible)</t>
   </si>
   <si>
@@ -7289,6 +7239,56 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Release - v9.1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Modified Instances Tab, BlockVolumes Tab, LB Tabs
+</t>
     </r>
   </si>
 </sst>
@@ -7837,7 +7837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8101,6 +8101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8170,8 +8175,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -11605,7 +11608,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11617,7 +11620,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -11630,8 +11633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R501"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11656,28 +11659,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="122" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="125" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -17581,8 +17584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -17602,18 +17605,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>828</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -19226,17 +19229,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
@@ -19327,25 +19330,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -19454,21 +19457,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" style="39" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="19" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" style="39" customWidth="1"/>
     <col min="17" max="17" width="10.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
@@ -19476,34 +19479,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="115" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -20462,15 +20465,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -20495,7 +20498,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1">
+    <row r="3" spans="1:7" ht="44" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -20625,55 +20628,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="39" customWidth="1"/>
-    <col min="10" max="14" width="22.1796875" style="39" customWidth="1"/>
-    <col min="15" max="15" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" style="39" customWidth="1"/>
+    <col min="12" max="13" width="20.90625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" style="39" customWidth="1"/>
     <col min="17" max="17" width="19" style="39" customWidth="1"/>
-    <col min="18" max="18" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.36328125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="8.36328125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" style="39" customWidth="1"/>
     <col min="20" max="20" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="137" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="114" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="116"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="117" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="119"/>
     </row>
     <row r="2" spans="1:20" s="47" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -20707,16 +20713,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>1062</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>1063</v>
-      </c>
       <c r="M2" s="33" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>1068</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>1069</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>95</v>
@@ -20730,7 +20736,7 @@
       <c r="R2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>98</v>
       </c>
       <c r="T2" s="32" t="s">
@@ -20753,7 +20759,7 @@
       <c r="E3" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>404</v>
       </c>
       <c r="G3" s="40" t="b">
@@ -20765,7 +20771,7 @@
       <c r="I3" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="113" t="s">
         <v>105</v>
       </c>
       <c r="K3" s="40">
@@ -20801,7 +20807,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -20817,7 +20823,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="40"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -20833,7 +20839,7 @@
       <c r="E5" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>404</v>
       </c>
       <c r="G5" s="40" t="b">
@@ -20881,7 +20887,7 @@
       <c r="E6" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>332</v>
       </c>
       <c r="G6" s="40" t="b">
@@ -20891,13 +20897,13 @@
       <c r="I6" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="J6" s="136" t="s">
+      <c r="J6" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
       <c r="O6" s="40" t="s">
         <v>103</v>
       </c>
@@ -20927,7 +20933,7 @@
       <c r="E7" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>345</v>
       </c>
       <c r="G7" s="40" t="b">
@@ -20937,13 +20943,13 @@
       <c r="I7" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="J7" s="136" t="s">
+      <c r="J7" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
       <c r="O7" s="40" t="s">
         <v>103</v>
       </c>
@@ -21083,7 +21089,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -21101,19 +21107,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="114.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" ht="43.5">
       <c r="A2" s="11" t="s">
@@ -21138,7 +21144,7 @@
         <v>109</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>96</v>
@@ -21222,7 +21228,7 @@
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
-      <c r="J5" s="137"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11">
@@ -21399,20 +21405,20 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="119.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20.453125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" style="39" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" style="39" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="15" style="39" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.36328125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="16" style="39" customWidth="1"/>
+    <col min="9" max="9" width="5" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.1796875" style="39" customWidth="1"/>
     <col min="12" max="12" width="7.81640625" style="39" customWidth="1"/>
     <col min="13" max="13" width="8.453125" style="39" customWidth="1"/>
@@ -21422,30 +21428,30 @@
     <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:17" ht="119.5" customHeight="1">
+      <c r="A1" s="129" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="119.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -21498,7 +21504,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="119.5" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -21521,7 +21527,7 @@
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
     </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1">
+    <row r="4" spans="1:17" ht="119.5" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -21560,7 +21566,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="119.5" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="40"/>
       <c r="C5" s="30"/>
@@ -21585,7 +21591,7 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="119.5" customHeight="1">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -21609,7 +21615,7 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1">
+    <row r="7" spans="1:17" ht="119.5" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -21642,7 +21648,7 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1">
+    <row r="8" spans="1:17" ht="119.5" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -21681,7 +21687,7 @@
       </c>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1">
+    <row r="9" spans="1:17" ht="119.5" customHeight="1">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -21718,7 +21724,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1">
+    <row r="10" spans="1:17" ht="119.5" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -21796,47 +21802,47 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" style="39" customWidth="1"/>
     <col min="5" max="6" width="19.1796875" style="39" customWidth="1"/>
     <col min="7" max="7" width="11.453125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" style="39" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.453125" style="39" customWidth="1"/>
     <col min="16" max="16" width="28.1796875" style="39" customWidth="1"/>
     <col min="17" max="17" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -21849,7 +21855,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>884</v>
@@ -21860,14 +21866,14 @@
       <c r="G2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="21" t="s">
         <v>140</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>97</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>141</v>
@@ -22091,7 +22097,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -22104,13 +22110,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -22349,7 +22355,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -22370,29 +22376,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="106" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="41" t="s">
@@ -22405,13 +22411,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>157</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>158</v>
@@ -22714,29 +22720,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="117" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="120" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="131"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -23413,14 +23419,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -23552,7 +23558,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -23569,24 +23575,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="109" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
+      <c r="A1" s="116" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -23611,7 +23617,7 @@
         <v>244</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>245</v>
@@ -23814,17 +23820,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -23988,35 +23994,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="54" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="119"/>
     </row>
     <row r="2" spans="1:27" s="65" customFormat="1" ht="43.5">
       <c r="A2" s="68" t="s">
@@ -30416,16 +30422,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>977</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="94" t="s">
@@ -36529,25 +36535,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="54" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
       <c r="R1" s="100"/>
       <c r="S1" s="100"/>
       <c r="T1" s="100"/>
@@ -47575,13 +47581,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -48565,16 +48571,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -51240,7 +51246,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -51258,20 +51264,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>947</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
@@ -51315,7 +51321,7 @@
       <c r="C3" s="78" t="s">
         <v>815</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="38" t="s">
         <v>996</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -51677,22 +51683,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>1049</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="114" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="117" t="s">
         <v>469</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -51952,18 +51958,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>829</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="120" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="123" t="s">
         <v>830</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="29">
       <c r="A2" s="79" t="s">
@@ -52378,10 +52384,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="95" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B1" s="119"/>
+      <c r="A1" s="116" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1" s="122"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -52441,16 +52447,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1070">
   <si>
     <t>Region</t>
   </si>
@@ -5833,13 +5833,7 @@
     <t>Frankfurt</t>
   </si>
   <si>
-    <t>ssh</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>rdp</t>
   </si>
   <si>
     <t>Jeddah</t>
@@ -11620,7 +11614,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -11752,7 +11746,7 @@
         <v>872</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>51</v>
@@ -11806,7 +11800,7 @@
         <v>873</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>51</v>
@@ -11860,7 +11854,7 @@
         <v>874</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>51</v>
@@ -11911,10 +11905,10 @@
         <v>864</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>51</v>
@@ -11926,10 +11920,10 @@
         <v>35</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>23</v>
@@ -19311,10 +19305,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -19401,6 +19395,11 @@
       </c>
       <c r="Q2" s="32" t="s">
         <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="F3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -19458,7 +19457,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20667,7 +20666,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="117" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J1" s="118"/>
       <c r="K1" s="118"/>
@@ -20713,16 +20712,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>95</v>
@@ -21144,7 +21143,7 @@
         <v>109</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>96</v>
@@ -21512,7 +21511,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -21855,7 +21854,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>884</v>
@@ -21873,7 +21872,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>141</v>
@@ -22377,7 +22376,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="106" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -22411,13 +22410,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>157</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>158</v>
@@ -23576,7 +23575,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="109" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -23617,7 +23616,7 @@
         <v>244</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>245</v>
@@ -24038,31 +24037,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="68" t="s">
+        <v>952</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>953</v>
+      </c>
+      <c r="I2" s="68" t="s">
         <v>954</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="J2" s="68" t="s">
         <v>955</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="K2" s="94" t="s">
         <v>956</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="L2" s="68" t="s">
         <v>957</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="M2" s="69" t="s">
         <v>958</v>
-      </c>
-      <c r="L2" s="68" t="s">
-        <v>959</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>960</v>
       </c>
       <c r="N2" s="68" t="s">
         <v>423</v>
@@ -24080,10 +24079,10 @@
         <v>426</v>
       </c>
       <c r="S2" s="68" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="T2" s="68" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="U2" s="68" t="s">
         <v>95</v>
@@ -24095,7 +24094,7 @@
         <v>330</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y2" s="68" t="s">
         <v>590</v>
@@ -24149,10 +24148,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>347</v>
@@ -24175,7 +24174,7 @@
         <v>336</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="O4" s="55" t="s">
         <v>337</v>
@@ -24224,10 +24223,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F5" s="55" t="s">
         <v>350</v>
@@ -24252,7 +24251,7 @@
         <v>336</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O5" s="55" t="s">
         <v>352</v>
@@ -30423,7 +30422,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -30441,7 +30440,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D2" s="94" t="s">
         <v>84</v>
@@ -30450,10 +30449,10 @@
         <v>85</v>
       </c>
       <c r="F2" s="94" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H2" s="97" t="s">
         <v>442</v>
@@ -30485,7 +30484,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -36570,34 +36569,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F2" s="94" t="s">
         <v>354</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I2" s="94" t="s">
         <v>423</v>
       </c>
       <c r="J2" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>979</v>
+      </c>
+      <c r="L2" s="94" t="s">
         <v>980</v>
-      </c>
-      <c r="K2" s="94" t="s">
-        <v>981</v>
-      </c>
-      <c r="L2" s="94" t="s">
-        <v>982</v>
       </c>
       <c r="M2" s="94" t="s">
         <v>95</v>
@@ -36609,7 +36608,7 @@
         <v>97</v>
       </c>
       <c r="P2" s="111" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="Q2" s="101" t="s">
         <v>442</v>
@@ -36653,13 +36652,13 @@
         <v>430</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G4" s="109">
         <v>4</v>
@@ -36668,7 +36667,7 @@
         <v>336</v>
       </c>
       <c r="I4" s="103" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="J4" s="103" t="s">
         <v>435</v>
@@ -43540,22 +43539,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="51" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>431</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>356</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>330</v>
@@ -43564,13 +43563,13 @@
         <v>329</v>
       </c>
       <c r="I1" s="96" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J1" s="96" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K1" s="61" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -43602,7 +43601,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -43610,7 +43609,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="95" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>433</v>
@@ -43637,7 +43636,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="67" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -43645,7 +43644,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="95" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>351</v>
@@ -43667,7 +43666,7 @@
         <v>347</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>434</v>
@@ -43687,7 +43686,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -43700,11 +43699,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="95" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -43717,11 +43716,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="95" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -43755,7 +43754,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
@@ -43768,11 +43767,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="95" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
@@ -43789,11 +43788,11 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
@@ -43806,7 +43805,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -43821,7 +43820,7 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -44310,8 +44309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5"/>
@@ -44391,7 +44390,7 @@
         <v>896</v>
       </c>
       <c r="M1" s="92" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="N1" s="92" t="s">
         <v>897</v>
@@ -44412,7 +44411,7 @@
         <v>902</v>
       </c>
       <c r="T1" s="92" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="U1" s="92" t="s">
         <v>903</v>
@@ -44427,7 +44426,7 @@
         <v>906</v>
       </c>
       <c r="Y1" s="92" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="Z1" s="83" t="s">
         <v>85</v>
@@ -44864,7 +44863,7 @@
       <c r="X5" s="86"/>
       <c r="Y5" s="86"/>
       <c r="Z5" s="86" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AA5" s="86"/>
       <c r="AB5" s="86"/>
@@ -44923,9 +44922,7 @@
         <v/>
       </c>
       <c r="N6" s="86"/>
-      <c r="O6" s="86" t="s">
-        <v>927</v>
-      </c>
+      <c r="O6" s="86"/>
       <c r="P6" s="87"/>
       <c r="Q6" s="86"/>
       <c r="R6" s="86"/>
@@ -44981,7 +44978,7 @@
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H7" s="86"/>
       <c r="I7" s="86"/>
@@ -44996,9 +44993,7 @@
         <v/>
       </c>
       <c r="N7" s="86"/>
-      <c r="O7" s="86" t="s">
-        <v>929</v>
-      </c>
+      <c r="O7" s="86"/>
       <c r="P7" s="87"/>
       <c r="Q7" s="86"/>
       <c r="R7" s="86"/>
@@ -45052,7 +45047,7 @@
       </c>
       <c r="F8" s="86"/>
       <c r="G8" s="86" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="86"/>
@@ -45121,7 +45116,7 @@
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="86" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
@@ -45190,7 +45185,7 @@
       </c>
       <c r="F10" s="86"/>
       <c r="G10" s="86" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
@@ -45259,7 +45254,7 @@
       </c>
       <c r="F11" s="86"/>
       <c r="G11" s="86" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
@@ -45328,7 +45323,7 @@
       </c>
       <c r="F12" s="86"/>
       <c r="G12" s="86" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
@@ -45395,7 +45390,7 @@
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H13" s="86"/>
       <c r="I13" s="86"/>
@@ -45462,7 +45457,7 @@
       </c>
       <c r="F14" s="86"/>
       <c r="G14" s="86" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H14" s="86"/>
       <c r="I14" s="86"/>
@@ -45596,7 +45591,7 @@
       </c>
       <c r="F16" s="86"/>
       <c r="G16" s="86" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
@@ -45663,7 +45658,7 @@
       </c>
       <c r="F17" s="86"/>
       <c r="G17" s="86" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="86"/>
@@ -45730,7 +45725,7 @@
       </c>
       <c r="F18" s="86"/>
       <c r="G18" s="86" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
@@ -45797,7 +45792,7 @@
       </c>
       <c r="F19" s="86"/>
       <c r="G19" s="86" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H19" s="86"/>
       <c r="I19" s="86"/>
@@ -45864,7 +45859,7 @@
       </c>
       <c r="F20" s="86"/>
       <c r="G20" s="86" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H20" s="86"/>
       <c r="I20" s="86"/>
@@ -45931,7 +45926,7 @@
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="86" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H21" s="86"/>
       <c r="I21" s="86"/>
@@ -45998,7 +45993,7 @@
       </c>
       <c r="F22" s="86"/>
       <c r="G22" s="86" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
@@ -46065,7 +46060,7 @@
       </c>
       <c r="F23" s="86"/>
       <c r="G23" s="86" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H23" s="86"/>
       <c r="I23" s="86"/>
@@ -46132,7 +46127,7 @@
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H24" s="86"/>
       <c r="I24" s="86"/>
@@ -47715,10 +47710,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -48084,8 +48079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -48100,7 +48095,7 @@
         <v>886</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -49026,7 +49021,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -49038,7 +49033,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -49050,7 +49045,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -49062,7 +49057,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -49074,7 +49069,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -49110,7 +49105,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -49134,7 +49129,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -49146,7 +49141,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -49334,7 +49329,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -49346,7 +49341,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -49626,7 +49621,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -49638,7 +49633,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -49650,7 +49645,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -49886,7 +49881,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -49898,7 +49893,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -49910,7 +49905,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -49922,7 +49917,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -49934,7 +49929,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -49946,7 +49941,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -49958,7 +49953,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -49970,7 +49965,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -49982,7 +49977,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -50006,7 +50001,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -50018,7 +50013,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -50394,7 +50389,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -50406,7 +50401,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -50418,7 +50413,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -50430,7 +50425,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -50442,7 +50437,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -50454,7 +50449,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -50466,7 +50461,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -50490,7 +50485,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -50502,7 +50497,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -50533,16 +50528,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="102" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>416</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -50554,7 +50549,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -50898,7 +50893,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -50910,7 +50905,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -50922,7 +50917,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -50934,7 +50929,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -50946,7 +50941,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -50958,7 +50953,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -51030,7 +51025,7 @@
       <c r="C197" s="75"/>
       <c r="D197" s="75"/>
       <c r="E197" s="75" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F197" s="75"/>
       <c r="G197" s="75"/>
@@ -51038,7 +51033,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
       <c r="E198" s="38" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -51265,7 +51260,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -51322,7 +51317,7 @@
         <v>815</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>809</v>
@@ -51352,7 +51347,7 @@
         <v>815</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>812</v>
@@ -51684,7 +51679,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -51711,7 +51706,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -52385,7 +52380,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="95" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B1" s="122"/>
     </row>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1072">
   <si>
     <t>Region</t>
   </si>
@@ -7284,6 +7284,12 @@
       <t xml:space="preserve">Modified Instances Tab, BlockVolumes Tab, LB Tabs
 </t>
     </r>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>/dev/oracleoci/oraclevdb</t>
   </si>
 </sst>
 </file>
@@ -21085,10 +21091,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -21099,13 +21105,13 @@
     <col min="4" max="4" width="10.6328125" style="39" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" style="39" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" style="39" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" customWidth="1"/>
+    <col min="7" max="8" width="17.6328125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="39" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="114.75" customHeight="1">
+    <row r="1" spans="1:12" ht="114.75" customHeight="1">
       <c r="A1" s="117" t="s">
         <v>589</v>
       </c>
@@ -21118,9 +21124,10 @@
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
-    </row>
-    <row r="2" spans="1:11" s="47" customFormat="1" ht="43.5">
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
+    </row>
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="43.5">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -21143,19 +21150,22 @@
         <v>109</v>
       </c>
       <c r="H2" s="33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>1067</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.75" customHeight="1">
+    <row r="3" spans="1:12" ht="31.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -21169,8 +21179,9 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.75" customHeight="1">
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.75" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
@@ -21192,18 +21203,21 @@
       <c r="G4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="25" t="b">
+      <c r="H4" s="38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I4" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="L4" s="38" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.75" customHeight="1">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -21225,126 +21239,127 @@
       <c r="G5" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="40"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="H6" s="50"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="H7" s="50"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="I7" s="50"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="H8" s="50"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="H9" s="50"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="H10" s="50"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="H11" s="50"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="I11" s="50"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="H12" s="50"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="H13" s="50"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="H14" s="50"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="H15" s="50"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="H16" s="50"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="50"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="9:10">
       <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="50"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="9:10">
       <c r="I18" s="50"/>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="50"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="9:10">
       <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="50"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="9:10">
       <c r="I20" s="50"/>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="50"/>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="9:10">
       <c r="I21" s="50"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="50"/>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="9:10">
       <c r="I22" s="50"/>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="50"/>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="9:10">
       <c r="I23" s="50"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="50"/>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="9:10">
       <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="8:9">
-      <c r="H25" s="50"/>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" spans="9:10">
       <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="8:9">
-      <c r="H26" s="50"/>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" spans="9:10">
       <c r="I26" s="50"/>
-    </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="50"/>
+      <c r="J26" s="50"/>
+    </row>
+    <row r="27" spans="9:10">
       <c r="I27" s="50"/>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="50"/>
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" spans="9:10">
       <c r="I28" s="50"/>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="50"/>
+      <c r="J28" s="50"/>
+    </row>
+    <row r="29" spans="9:10">
       <c r="I29" s="50"/>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="50"/>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="9:10">
       <c r="I30" s="50"/>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="50"/>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="9:10">
       <c r="I31" s="50"/>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="50"/>
+      <c r="J31" s="50"/>
+    </row>
+    <row r="32" spans="9:10">
       <c r="I32" s="50"/>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="50"/>
+      <c r="J32" s="50"/>
+    </row>
+    <row r="33" spans="9:10">
       <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21367,19 +21382,19 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$V$2:$V$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G500 H34:H500</xm:sqref>
+          <xm:sqref>I34:I500 G3:G500 H3 H6:H500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$S$2:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I34:I500</xm:sqref>
+          <xm:sqref>J34:J500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:I500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J500</xm:sqref>
+          <xm:sqref>K3:K500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -6481,9 +6481,6 @@
     <t>Backend ServerComp&amp;ServerName:Port</t>
   </si>
   <si>
-    <t>Reserved IPs (Y|N|OCID)</t>
-  </si>
-  <si>
     <t>Memory In GBs</t>
   </si>
   <si>
@@ -7290,6 +7287,9 @@
   </si>
   <si>
     <t>/dev/oracleoci/oraclevdb</t>
+  </si>
+  <si>
+    <t>Reserved IP (Y|N|OCID)</t>
   </si>
 </sst>
 </file>
@@ -11620,7 +11620,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -20672,7 +20672,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="117" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J1" s="118"/>
       <c r="K1" s="118"/>
@@ -20718,16 +20718,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>1059</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>1060</v>
-      </c>
       <c r="M2" s="33" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>1065</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>1066</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>95</v>
@@ -21150,10 +21150,10 @@
         <v>109</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>96</v>
@@ -21204,7 +21204,7 @@
         <v>110</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I4" s="25" t="b">
         <v>1</v>
@@ -21816,7 +21816,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -21887,7 +21887,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>141</v>
@@ -22391,7 +22391,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="106" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -22425,7 +22425,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>157</v>
@@ -23590,7 +23590,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="109" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -23631,7 +23631,7 @@
         <v>244</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>245</v>
@@ -52395,7 +52395,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="95" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1" s="122"/>
     </row>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-DRGv2-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8FCF8-69F9-A940-81C9-9D318EEA2650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567211D-A94F-3742-86B1-06B4AE750281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1072">
   <si>
     <t>Region</t>
   </si>
@@ -1067,9 +1067,6 @@
     <t>Validator</t>
   </si>
   <si>
-    <t>Default Tag Value</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -1082,9 +1079,6 @@
     <t>ENUM::"application-team","ocs"</t>
   </si>
   <si>
-    <t>ocs</t>
-  </si>
-  <si>
     <t>internal</t>
   </si>
   <si>
@@ -1109,9 +1103,6 @@
     <t>Development Environment</t>
   </si>
   <si>
-    <t>ocs-development</t>
-  </si>
-  <si>
     <t>qa</t>
   </si>
   <si>
@@ -1503,9 +1494,6 @@
   </si>
   <si>
     <t>10.117.0.0/16</t>
-  </si>
-  <si>
-    <t>Default Tag Compartment</t>
   </si>
   <si>
     <t>ENUM::"internal-team","ocs-internal"</t>
@@ -3878,80 +3866,6 @@
     <t>Backend HealthCheck Interval In Millis</t>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Default Tag Compartment" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the compartment to which the tag should be assigned as default.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Default Tag Value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - To use 'User-Assigned Value':
-                                                    - Leave this field empty .
-                                         To use 'Default Values':
-                                                    - (if the Validator is set) mention one of the values in Validator.
-                                                    - (If the Validator is empty) the user can enter any value.
-Specify Tag Keys in different rows as shown in the example below.(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
-    </r>
-  </si>
-  <si>
     <t>AR8ADOS710</t>
   </si>
   <si>
@@ -5255,16 +5169,10 @@
     <t>Identifies who created the resource.</t>
   </si>
   <si>
-    <t>${iam.principal.name}</t>
-  </si>
-  <si>
     <t>CreatedOn</t>
   </si>
   <si>
     <t>Identifies when the resource was created.</t>
-  </si>
-  <si>
-    <t>${oci.datetime}</t>
   </si>
   <si>
     <t>OracleTags</t>
@@ -7339,6 +7247,129 @@
   <si>
     <t>Trusted Certificate Authority IDs</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Default Tag Compartment = Default Tag Value " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Specify the compartment to which the tag should be assigned as default. Use Semi Colon as the delimeter between two values.
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:OMCDev::OMCDev-VM=${iam.principal.name};OMCDev::OMCDev-VM::demo-Application=) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Directives to specify Default Tag Value :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - To use 'User-Assigned Value':  Leave this field empty . (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: OMCDev::OMCDev-VM::demo-Application=)
+ - To use 'Default Values':
+     - (if the Validator is set) mention one of the values from Validator.
+     - (If the Validator is empty)  user can enter any value.
+Specify Tag Keys in different rows as shown in the example below.(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
+    </r>
+  </si>
+  <si>
+    <t>root=${iam.principal.name}</t>
+  </si>
+  <si>
+    <t>root=${oci.datetime}</t>
+  </si>
+  <si>
+    <t>Network=ocs</t>
+  </si>
+  <si>
+    <t>Network::TCC=ocs-development</t>
+  </si>
+  <si>
+    <t>Default Tag Compartment = Default Tag Value</t>
+  </si>
 </sst>
 </file>
 
@@ -7347,7 +7378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7580,6 +7611,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="11">
@@ -11702,7 +11739,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -11742,7 +11779,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -11752,7 +11789,7 @@
       <c r="G1" s="118"/>
       <c r="H1" s="119"/>
       <c r="I1" s="125" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J1" s="125"/>
       <c r="K1" s="125"/>
@@ -11817,39 +11854,39 @@
         <v>18</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>23</v>
@@ -11876,34 +11913,34 @@
     </row>
     <row r="4" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>23</v>
@@ -11930,19 +11967,19 @@
     </row>
     <row r="5" spans="1:18" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>51</v>
@@ -11954,10 +11991,10 @@
         <v>35</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>23</v>
@@ -11984,19 +12021,19 @@
     </row>
     <row r="6" spans="1:18" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>51</v>
@@ -12008,10 +12045,10 @@
         <v>35</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>23</v>
@@ -12037,16 +12074,16 @@
     </row>
     <row r="7" spans="1:18" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>55</v>
@@ -12061,16 +12098,16 @@
         <v>35</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M7" s="40" t="str">
         <f t="shared" si="0"/>
@@ -12091,19 +12128,19 @@
     </row>
     <row r="8" spans="1:18" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>51</v>
@@ -12115,16 +12152,16 @@
         <v>35</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M8" s="40" t="str">
         <f t="shared" si="0"/>
@@ -12145,19 +12182,19 @@
     </row>
     <row r="9" spans="1:18" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>51</v>
@@ -12169,16 +12206,16 @@
         <v>35</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M9" s="40" t="str">
         <f t="shared" si="0"/>
@@ -12199,34 +12236,34 @@
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>23</v>
@@ -12253,19 +12290,19 @@
     </row>
     <row r="11" spans="1:18" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>51</v>
@@ -12277,16 +12314,16 @@
         <v>35</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M11" s="40" t="str">
         <f t="shared" si="0"/>
@@ -12307,19 +12344,19 @@
     </row>
     <row r="12" spans="1:18" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>51</v>
@@ -12331,16 +12368,16 @@
         <v>35</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="K12" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M12" s="40" t="str">
         <f t="shared" si="0"/>
@@ -12361,19 +12398,19 @@
     </row>
     <row r="13" spans="1:18" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>51</v>
@@ -12385,16 +12422,16 @@
         <v>35</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="K13" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M13" s="40" t="str">
         <f t="shared" si="0"/>
@@ -12445,13 +12482,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C15" s="73" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="73" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E15" s="73" t="s">
         <v>50</v>
@@ -12473,7 +12510,7 @@
         <v>21</v>
       </c>
       <c r="L15" s="76" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M15" s="73" t="str">
         <f t="shared" si="0"/>
@@ -12491,7 +12528,7 @@
       </c>
       <c r="Q15" s="76"/>
       <c r="R15" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -12499,16 +12536,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D16" s="73" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>51</v>
@@ -12549,13 +12586,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D17" s="73" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E17" s="73" t="s">
         <v>55</v>
@@ -12599,16 +12636,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D18" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="73" t="s">
         <v>388</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>391</v>
       </c>
       <c r="F18" s="73" t="s">
         <v>51</v>
@@ -12617,7 +12654,7 @@
         <v>57</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I18" s="73"/>
       <c r="J18" s="73" t="s">
@@ -12651,16 +12688,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F19" s="73" t="s">
         <v>51</v>
@@ -12669,11 +12706,11 @@
         <v>57</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I19" s="73"/>
       <c r="J19" s="73" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K19" s="73" t="s">
         <v>23</v>
@@ -12703,16 +12740,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F20" s="73" t="s">
         <v>51</v>
@@ -12721,17 +12758,17 @@
         <v>57</v>
       </c>
       <c r="H20" s="73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I20" s="73"/>
       <c r="J20" s="73" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K20" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="76" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M20" s="73" t="str">
         <f t="shared" si="0"/>
@@ -17688,7 +17725,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -17708,56 +17745,56 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
@@ -19312,7 +19349,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -19349,7 +19386,7 @@
         <v>61</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -19413,7 +19450,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -19482,7 +19519,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -19567,7 +19604,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -19645,30 +19682,30 @@
         <v>61</v>
       </c>
       <c r="S2" s="64" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T2" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="39" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>79</v>
@@ -19676,10 +19713,10 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -19692,35 +19729,35 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
     </row>
     <row r="4" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>29</v>
@@ -19738,38 +19775,38 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
     </row>
     <row r="5" spans="1:20" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -19784,29 +19821,29 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>79</v>
@@ -19814,10 +19851,10 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -19830,38 +19867,38 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
     </row>
     <row r="7" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -19876,38 +19913,38 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -19922,29 +19959,29 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
     </row>
     <row r="9" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>79</v>
@@ -19952,10 +19989,10 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -19968,29 +20005,29 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
     </row>
     <row r="10" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>79</v>
@@ -19998,10 +20035,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -20014,38 +20051,38 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -20060,38 +20097,38 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -20106,29 +20143,29 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:20" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>79</v>
@@ -20136,10 +20173,10 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -20152,29 +20189,29 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
     </row>
     <row r="14" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>79</v>
@@ -20182,10 +20219,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -20198,38 +20235,38 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
     </row>
     <row r="15" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -20244,38 +20281,38 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
     </row>
     <row r="16" spans="1:20" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -20290,7 +20327,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -20324,13 +20361,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C18" s="73" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E18" s="73" t="s">
         <v>77</v>
@@ -20357,7 +20394,7 @@
       <c r="Q18" s="76"/>
       <c r="R18" s="74"/>
       <c r="T18" s="39" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="39" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20365,28 +20402,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C19" s="73" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E19" s="73" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G19" s="73" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J19" s="73"/>
       <c r="K19" s="73"/>
@@ -20407,13 +20444,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D20" s="73" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E20" s="73" t="s">
         <v>77</v>
@@ -20445,13 +20482,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E21" s="73" t="s">
         <v>82</v>
@@ -20466,7 +20503,7 @@
         <v>80</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J21" s="73"/>
       <c r="K21" s="73"/>
@@ -20553,7 +20590,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -20570,7 +20607,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>84</v>
@@ -20582,7 +20619,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -20590,7 +20627,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>87</v>
@@ -20605,7 +20642,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20613,7 +20650,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>89</v>
@@ -20634,7 +20671,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>91</v>
@@ -20646,7 +20683,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G5" s="40"/>
     </row>
@@ -20738,7 +20775,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -20748,7 +20785,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="117" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="J1" s="118"/>
       <c r="K1" s="118"/>
@@ -20773,7 +20810,7 @@
         <v>84</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>86</v>
@@ -20788,22 +20825,22 @@
         <v>93</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>95</v>
@@ -20812,7 +20849,7 @@
         <v>96</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="R2" s="32" t="s">
         <v>97</v>
@@ -20821,7 +20858,7 @@
         <v>98</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -20829,28 +20866,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G3" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J3" s="113" t="s">
         <v>105</v>
@@ -20867,17 +20904,17 @@
         <v>103</v>
       </c>
       <c r="P3" s="49" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="R3" s="40"/>
       <c r="S3" s="40" t="s">
         <v>91</v>
       </c>
       <c r="T3" s="38" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -20909,29 +20946,29 @@
         <v>5</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G5" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
@@ -20943,7 +20980,7 @@
         <v>103</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
@@ -20957,26 +20994,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G6" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="49"/>
       <c r="I6" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J6" s="113" t="s">
         <v>105</v>
@@ -20989,11 +21026,11 @@
         <v>103</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S6" s="40"/>
       <c r="T6" s="40"/>
@@ -21003,26 +21040,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G7" s="40" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J7" s="113" t="s">
         <v>105</v>
@@ -21035,11 +21072,11 @@
         <v>103</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="40"/>
       <c r="R7" s="40" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S7" s="40"/>
       <c r="T7" s="40"/>
@@ -21189,7 +21226,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -21226,19 +21263,19 @@
         <v>109</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21262,10 +21299,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" s="40">
         <v>150</v>
@@ -21274,23 +21311,23 @@
         <v>56</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>110</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="I4" s="25" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="49" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21298,10 +21335,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D5" s="40">
         <v>150</v>
@@ -21310,7 +21347,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G5" s="105" t="s">
         <v>110</v>
@@ -21520,7 +21557,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="119.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="129" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
@@ -21530,7 +21567,7 @@
       <c r="G1" s="130"/>
       <c r="H1" s="131"/>
       <c r="I1" s="132" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J1" s="132"/>
       <c r="K1" s="132"/>
@@ -21591,7 +21628,7 @@
         <v>97</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -21602,7 +21639,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -21622,7 +21659,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>90</v>
@@ -21631,7 +21668,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
@@ -21641,7 +21678,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -21650,10 +21687,10 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
@@ -21666,7 +21703,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>126</v>
@@ -21690,7 +21727,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>128</v>
@@ -21710,7 +21747,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>90</v>
@@ -21719,7 +21756,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -21727,7 +21764,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -21743,7 +21780,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>99</v>
@@ -21752,7 +21789,7 @@
         <v>131</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -21760,7 +21797,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>133</v>
@@ -21773,7 +21810,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="40"/>
     </row>
@@ -21782,7 +21819,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>99</v>
@@ -21791,7 +21828,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -21799,7 +21836,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>135</v>
@@ -21819,7 +21856,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>90</v>
@@ -21828,7 +21865,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -21836,7 +21873,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -21913,7 +21950,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -21945,13 +21982,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>139</v>
@@ -21963,7 +22000,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>141</v>
@@ -21984,13 +22021,13 @@
         <v>146</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22021,10 +22058,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>147</v>
@@ -22032,7 +22069,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H4" s="40" t="b">
         <v>1</v>
@@ -22054,13 +22091,13 @@
         <v>151</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="S4" s="38" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -22095,10 +22132,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>153</v>
@@ -22106,13 +22143,13 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H6" s="40" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="38" t="s">
@@ -22201,7 +22238,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -22222,7 +22259,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -22230,13 +22267,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E3" s="40"/>
     </row>
@@ -22245,13 +22282,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E4" s="40"/>
     </row>
@@ -22260,13 +22297,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E5" s="40"/>
     </row>
@@ -22275,13 +22312,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E6" s="40"/>
     </row>
@@ -22299,10 +22336,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
@@ -22312,13 +22349,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E9" s="73"/>
     </row>
@@ -22327,13 +22364,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E10" s="73"/>
     </row>
@@ -22342,10 +22379,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -22355,13 +22392,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E12" s="73"/>
     </row>
@@ -22370,13 +22407,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E13" s="73"/>
     </row>
@@ -22385,13 +22422,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E14" s="73"/>
     </row>
@@ -22400,16 +22437,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D15" s="73" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -22467,7 +22504,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -22502,16 +22539,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>158</v>
@@ -22526,7 +22563,7 @@
         <v>161</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M2" s="41" t="s">
         <v>162</v>
@@ -22547,16 +22584,16 @@
         <v>167</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -22590,10 +22627,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -22601,7 +22638,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>169</v>
@@ -22637,10 +22674,10 @@
         <v>100</v>
       </c>
       <c r="S4" s="40" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="T4" s="63" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U4" s="40">
         <v>2</v>
@@ -22661,7 +22698,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>169</v>
@@ -22698,10 +22735,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -22709,7 +22746,7 @@
         <v>177</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>169</v>
@@ -22819,7 +22856,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -22830,7 +22867,7 @@
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
       <c r="J1" s="120" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K1" s="133"/>
       <c r="L1" s="133"/>
@@ -22886,7 +22923,7 @@
         <v>189</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>190</v>
@@ -22929,7 +22966,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>193</v>
@@ -22938,7 +22975,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -23409,7 +23446,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>230</v>
@@ -23518,7 +23555,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="135" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -23561,7 +23598,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>233</v>
@@ -23611,7 +23648,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>239</v>
@@ -23674,7 +23711,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -23716,16 +23753,16 @@
         <v>244</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>246</v>
@@ -23734,16 +23771,16 @@
         <v>247</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -23772,7 +23809,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>168</v>
@@ -23792,16 +23829,16 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O4" s="63" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P4" s="40">
         <v>2</v>
@@ -23829,7 +23866,7 @@
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
       <c r="J5" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
@@ -23844,7 +23881,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>177</v>
@@ -23927,7 +23964,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -23946,25 +23983,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="H2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>322</v>
-      </c>
       <c r="I2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -23982,19 +24019,19 @@
     </row>
     <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F4" s="40">
         <v>1</v>
@@ -24003,28 +24040,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I4" s="67" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F5" s="40">
         <v>1</v>
@@ -24033,7 +24070,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I5" s="49"/>
       <c r="J5" s="50"/>
@@ -24101,7 +24138,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="54" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -24144,73 +24181,73 @@
         <v>39</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="68" t="s">
+        <v>945</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>946</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>947</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>948</v>
+      </c>
+      <c r="K2" s="94" t="s">
+        <v>949</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>950</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>951</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q2" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" s="68" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" s="68" t="s">
         <v>952</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="T2" s="68" t="s">
         <v>953</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>954</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>955</v>
-      </c>
-      <c r="K2" s="94" t="s">
-        <v>956</v>
-      </c>
-      <c r="L2" s="68" t="s">
-        <v>957</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>958</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>423</v>
-      </c>
-      <c r="O2" s="68" t="s">
-        <v>318</v>
-      </c>
-      <c r="P2" s="68" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q2" s="68" t="s">
-        <v>425</v>
-      </c>
-      <c r="R2" s="68" t="s">
-        <v>426</v>
-      </c>
-      <c r="S2" s="68" t="s">
-        <v>959</v>
-      </c>
-      <c r="T2" s="68" t="s">
-        <v>960</v>
       </c>
       <c r="U2" s="68" t="s">
         <v>95</v>
       </c>
       <c r="V2" s="68" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="W2" s="68" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Z2" s="68" t="s">
         <v>97</v>
       </c>
       <c r="AA2" s="68" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -24246,57 +24283,57 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="105" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G4" s="55">
         <v>1</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J4" s="55">
         <v>256</v>
       </c>
       <c r="K4" s="55"/>
       <c r="L4" s="55" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M4" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>990</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="N4" s="55" t="s">
-        <v>997</v>
-      </c>
-      <c r="O4" s="55" t="s">
+      <c r="R4" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="R4" s="55" t="s">
-        <v>340</v>
-      </c>
       <c r="S4" s="55" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T4" s="55" t="b">
         <v>1</v>
@@ -24305,38 +24342,38 @@
         <v>103</v>
       </c>
       <c r="V4" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X4" s="40">
         <v>15</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Z4" s="40"/>
       <c r="AA4" s="40"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C5" s="105" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G5" s="55">
         <v>2</v>
@@ -24345,35 +24382,35 @@
         <v>4</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J5" s="55">
         <v>256</v>
       </c>
       <c r="K5" s="55"/>
       <c r="L5" s="55" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M5" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>992</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q5" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="N5" s="55" t="s">
-        <v>999</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q5" s="55" t="s">
-        <v>339</v>
-      </c>
       <c r="R5" s="55" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="S5" s="55" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T5" s="55" t="b">
         <v>1</v>
@@ -24382,16 +24419,16 @@
         <v>103</v>
       </c>
       <c r="V5" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W5" s="40" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X5" s="40">
         <v>15</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Z5" s="40"/>
       <c r="AA5" s="40"/>
@@ -30529,7 +30566,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -30547,7 +30584,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="D2" s="94" t="s">
         <v>84</v>
@@ -30556,13 +30593,13 @@
         <v>85</v>
       </c>
       <c r="F2" s="94" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -30579,19 +30616,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -36642,7 +36679,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="54" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -36676,49 +36713,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
+        <v>964</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>969</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>970</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>946</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>951</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" s="94" t="s">
         <v>971</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>976</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>977</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>953</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>958</v>
-      </c>
-      <c r="I2" s="94" t="s">
-        <v>423</v>
-      </c>
-      <c r="J2" s="94" t="s">
-        <v>978</v>
-      </c>
       <c r="K2" s="94" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="L2" s="94" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="M2" s="94" t="s">
         <v>95</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="O2" s="111" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="111" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="Q2" s="101" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R2" s="50"/>
       <c r="S2" s="50"/>
@@ -36750,34 +36787,34 @@
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="105" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="G4" s="109">
         <v>4</v>
       </c>
       <c r="H4" s="103" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I4" s="103" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="J4" s="103" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K4" s="103" t="b">
         <v>1</v>
@@ -36789,11 +36826,11 @@
         <v>103</v>
       </c>
       <c r="N4" s="63" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="P4" s="40"/>
       <c r="Q4" s="38" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="40" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -43593,13 +43630,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-1A00-000008000000}">
           <x14:formula1>
-            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D6:D501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-1A00-000009000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C6:C501</xm:sqref>
         </x14:dataValidation>
@@ -43646,37 +43683,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I1" s="96" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="J1" s="96" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="K1" s="61" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -43684,31 +43721,31 @@
         <v>102</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I2" s="38">
         <v>80</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -43716,34 +43753,34 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I3" s="38">
         <v>40</v>
       </c>
       <c r="J3" s="67" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -43751,659 +43788,659 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F4" s="40"/>
       <c r="H4" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F5" s="40"/>
       <c r="H5" s="40" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F6" s="40"/>
       <c r="H6" s="40" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F7" s="40"/>
       <c r="H7" s="40" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="95" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F8" s="40"/>
       <c r="H8" s="40" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F9" s="40"/>
       <c r="H9" s="40" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F10" s="40"/>
       <c r="H10" s="40" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="95" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F11" s="40"/>
       <c r="H11" s="40" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="95" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="H13" s="40" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="95" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H15" s="40" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H16" s="40" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="40" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="40" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="40" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="40" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="40" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="40" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="40" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="40" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="40" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="40" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="40" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="40" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="40" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="40" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="40" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="40" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="40" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="40" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="40" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="40" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="40" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="40" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="40" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="40" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="40" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="40" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="40" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="40" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="40" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="40" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="40" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="40" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="40" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="40" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="40" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="40" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="40" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="40" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="40" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="40" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="40" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="40" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="40" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="40" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="40" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="40" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="40" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="40" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="40" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="40" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="40" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="40" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="40" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="40" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="40" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="40" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="40" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="40" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="40" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="40" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="40" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="40" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="40" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="40" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="40" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="40" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="40" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="40" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="40" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="40" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="40" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="40" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="40" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="40" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="40" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="40" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="40" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="40" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="40" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="40" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="40" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="40" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="40" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="40" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="40" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="40" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="40" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="40" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="40" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -44461,91 +44498,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="84" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="G1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="92" t="s">
+        <v>885</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>886</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>887</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>888</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>889</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>939</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>890</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>891</v>
+      </c>
+      <c r="P1" s="92" t="s">
         <v>892</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="Q1" s="92" t="s">
         <v>893</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="R1" s="92" t="s">
         <v>894</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="S1" s="92" t="s">
         <v>895</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="T1" s="92" t="s">
+        <v>941</v>
+      </c>
+      <c r="U1" s="92" t="s">
         <v>896</v>
       </c>
-      <c r="M1" s="92" t="s">
-        <v>946</v>
-      </c>
-      <c r="N1" s="92" t="s">
+      <c r="V1" s="83" t="s">
         <v>897</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="W1" s="83" t="s">
         <v>898</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="X1" s="83" t="s">
         <v>899</v>
       </c>
-      <c r="Q1" s="92" t="s">
-        <v>900</v>
-      </c>
-      <c r="R1" s="92" t="s">
-        <v>901</v>
-      </c>
-      <c r="S1" s="92" t="s">
-        <v>902</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>948</v>
-      </c>
-      <c r="U1" s="92" t="s">
-        <v>903</v>
-      </c>
-      <c r="V1" s="83" t="s">
-        <v>904</v>
-      </c>
-      <c r="W1" s="83" t="s">
-        <v>905</v>
-      </c>
-      <c r="X1" s="83" t="s">
-        <v>906</v>
-      </c>
       <c r="Y1" s="92" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="Z1" s="83" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="83" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="AB1" s="83" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="AC1" s="83" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="AD1" s="83" t="s">
         <v>252</v>
@@ -44566,10 +44603,10 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="83" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="AK1" s="83" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL1" s="83"/>
       <c r="AM1" s="83"/>
@@ -44598,7 +44635,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="H2" s="86" t="s">
         <v>38</v>
@@ -44621,22 +44658,22 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="86" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="O2" s="86" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="87" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="Q2" s="86" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R2" s="86" t="s">
         <v>56</v>
       </c>
       <c r="S2" s="86" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="T2" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
@@ -44647,13 +44684,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="86" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="W2" s="86" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="86" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="Y2" s="86" t="b">
         <v>1</v>
@@ -44662,7 +44699,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="86" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="AB2" s="86" t="s">
         <v>170</v>
@@ -44692,7 +44729,7 @@
         <v>170</v>
       </c>
       <c r="AK2" s="85" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.2">
@@ -44719,7 +44756,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="86" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H3" s="86" t="s">
         <v>36</v>
@@ -44728,7 +44765,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="K3" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -44742,10 +44779,10 @@
         <v>DRG</v>
       </c>
       <c r="N3" s="86" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="O3" s="86" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P3" s="87" t="s">
         <v>79</v>
@@ -44757,7 +44794,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="86" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="T3" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -44774,7 +44811,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="86" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="Y3" s="86" t="b">
         <v>0</v>
@@ -44786,7 +44823,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="86" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="AC3" s="86" t="s">
         <v>172</v>
@@ -44810,10 +44847,10 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="86" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="AK3" s="85" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.2">
@@ -44838,7 +44875,7 @@
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="86" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86" t="s">
@@ -44850,7 +44887,7 @@
         <v>dhcp-internal</v>
       </c>
       <c r="L4" s="86" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M4" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
@@ -44868,7 +44905,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="86" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="T4" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -44881,14 +44918,14 @@
       <c r="V4" s="86"/>
       <c r="W4" s="86"/>
       <c r="X4" s="86" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="Y4" s="86"/>
       <c r="Z4" s="86" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="AA4" s="86" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="AB4" s="86"/>
       <c r="AC4" s="86" t="s">
@@ -44935,7 +44972,7 @@
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="H5" s="86"/>
       <c r="I5" s="86" t="s">
@@ -44953,7 +44990,7 @@
       </c>
       <c r="N5" s="86"/>
       <c r="O5" s="86" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="P5" s="87"/>
       <c r="Q5" s="86"/>
@@ -44970,7 +45007,7 @@
       <c r="X5" s="86"/>
       <c r="Y5" s="86"/>
       <c r="Z5" s="86" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="AA5" s="86"/>
       <c r="AB5" s="86"/>
@@ -45014,7 +45051,7 @@
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="H6" s="86"/>
       <c r="I6" s="86"/>
@@ -45085,7 +45122,7 @@
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="H7" s="86"/>
       <c r="I7" s="86"/>
@@ -45154,7 +45191,7 @@
       </c>
       <c r="F8" s="86"/>
       <c r="G8" s="86" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="86"/>
@@ -45223,7 +45260,7 @@
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="86" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
@@ -45292,7 +45329,7 @@
       </c>
       <c r="F10" s="86"/>
       <c r="G10" s="86" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
@@ -45361,7 +45398,7 @@
       </c>
       <c r="F11" s="86"/>
       <c r="G11" s="86" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
@@ -45430,7 +45467,7 @@
       </c>
       <c r="F12" s="86"/>
       <c r="G12" s="86" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
@@ -45497,7 +45534,7 @@
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="H13" s="86"/>
       <c r="I13" s="86"/>
@@ -45564,7 +45601,7 @@
       </c>
       <c r="F14" s="86"/>
       <c r="G14" s="86" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="H14" s="86"/>
       <c r="I14" s="86"/>
@@ -45698,7 +45735,7 @@
       </c>
       <c r="F16" s="86"/>
       <c r="G16" s="86" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
@@ -45765,7 +45802,7 @@
       </c>
       <c r="F17" s="86"/>
       <c r="G17" s="86" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="86"/>
@@ -45832,7 +45869,7 @@
       </c>
       <c r="F18" s="86"/>
       <c r="G18" s="86" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
@@ -45899,7 +45936,7 @@
       </c>
       <c r="F19" s="86"/>
       <c r="G19" s="86" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="H19" s="86"/>
       <c r="I19" s="86"/>
@@ -45966,7 +46003,7 @@
       </c>
       <c r="F20" s="86"/>
       <c r="G20" s="86" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="H20" s="86"/>
       <c r="I20" s="86"/>
@@ -46033,7 +46070,7 @@
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="86" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="H21" s="86"/>
       <c r="I21" s="86"/>
@@ -46100,7 +46137,7 @@
       </c>
       <c r="F22" s="86"/>
       <c r="G22" s="86" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
@@ -46167,7 +46204,7 @@
       </c>
       <c r="F23" s="86"/>
       <c r="G23" s="86" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="H23" s="86"/>
       <c r="I23" s="86"/>
@@ -46234,7 +46271,7 @@
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="H24" s="86"/>
       <c r="I24" s="86"/>
@@ -47684,7 +47721,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -47702,10 +47739,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -47713,10 +47750,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
@@ -47726,10 +47763,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
@@ -47739,10 +47776,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
@@ -47752,10 +47789,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
@@ -47765,10 +47802,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -47778,10 +47815,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -47791,10 +47828,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -47804,10 +47841,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -47817,10 +47854,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -48199,16 +48236,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="83" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="85"/>
       <c r="B2" s="85" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -48674,7 +48711,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -48707,7 +48744,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -48715,16 +48752,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -48736,7 +48773,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -48747,16 +48784,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -48768,7 +48805,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -48780,7 +48817,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -48792,7 +48829,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -48804,7 +48841,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -48816,7 +48853,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -48828,7 +48865,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -48840,7 +48877,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -48852,7 +48889,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -48864,7 +48901,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -48876,7 +48913,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -48888,7 +48925,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -48900,7 +48937,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -48912,7 +48949,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -48924,7 +48961,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -48936,7 +48973,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -48948,7 +48985,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -48960,7 +48997,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -48972,7 +49009,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -48984,7 +49021,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -48996,7 +49033,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -49008,7 +49045,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -49020,7 +49057,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -49032,7 +49069,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -49044,7 +49081,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -49056,7 +49093,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -49068,7 +49105,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -49080,7 +49117,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -49092,7 +49129,7 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -49104,7 +49141,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -49116,7 +49153,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -49128,7 +49165,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -49140,7 +49177,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -49152,7 +49189,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -49164,7 +49201,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -49176,7 +49213,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -49188,7 +49225,7 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -49200,7 +49237,7 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -49212,7 +49249,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -49224,7 +49261,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -49236,7 +49273,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -49248,7 +49285,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -49259,16 +49296,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -49280,7 +49317,7 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -49292,7 +49329,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -49304,7 +49341,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -49316,7 +49353,7 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -49328,7 +49365,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -49340,7 +49377,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -49352,7 +49389,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -49364,7 +49401,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -49376,7 +49413,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -49388,7 +49425,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -49400,7 +49437,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -49412,7 +49449,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -49424,7 +49461,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -49436,7 +49473,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -49448,7 +49485,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -49459,16 +49496,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -49480,7 +49517,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -49492,7 +49529,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -49504,7 +49541,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -49515,16 +49552,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -49536,7 +49573,7 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -49548,7 +49585,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -49560,7 +49597,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -49572,7 +49609,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -49584,7 +49621,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -49596,7 +49633,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -49608,7 +49645,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -49620,7 +49657,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -49632,7 +49669,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -49644,7 +49681,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -49656,7 +49693,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -49668,7 +49705,7 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -49680,7 +49717,7 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -49692,7 +49729,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -49704,7 +49741,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -49716,7 +49753,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -49728,7 +49765,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -49740,7 +49777,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -49752,7 +49789,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -49763,16 +49800,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="110" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -49784,7 +49821,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -49796,7 +49833,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -49808,7 +49845,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -49820,7 +49857,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -49832,7 +49869,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -49844,7 +49881,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -49856,7 +49893,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -49868,7 +49905,7 @@
       <c r="C95" s="38"/>
       <c r="D95" s="38"/>
       <c r="E95" s="38" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -49880,7 +49917,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -49892,7 +49929,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -49904,7 +49941,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -49916,7 +49953,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -49928,7 +49965,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -49940,7 +49977,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -49952,7 +49989,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -49964,7 +50001,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -49976,7 +50013,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -49988,7 +50025,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -50000,7 +50037,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -50012,7 +50049,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -50024,7 +50061,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -50036,7 +50073,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -50048,7 +50085,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -50060,7 +50097,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -50072,7 +50109,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -50084,7 +50121,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -50096,7 +50133,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -50108,7 +50145,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -50120,7 +50157,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -50131,16 +50168,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="110" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E117" s="110" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -50152,7 +50189,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="110" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -50164,7 +50201,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="110" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -50176,7 +50213,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="110" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -50188,7 +50225,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="110" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -50200,7 +50237,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="110" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -50212,7 +50249,7 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="110" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
@@ -50224,7 +50261,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="110" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -50236,7 +50273,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="110" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -50248,7 +50285,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="110" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -50260,7 +50297,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="110" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -50272,7 +50309,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="110" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -50284,7 +50321,7 @@
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="110" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -50296,7 +50333,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -50308,7 +50345,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -50320,7 +50357,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -50332,7 +50369,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -50344,7 +50381,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -50355,16 +50392,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="110" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D135" s="38" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -50376,7 +50413,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -50388,7 +50425,7 @@
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -50400,7 +50437,7 @@
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -50412,7 +50449,7 @@
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -50424,7 +50461,7 @@
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -50436,7 +50473,7 @@
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -50448,7 +50485,7 @@
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -50460,7 +50497,7 @@
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -50472,7 +50509,7 @@
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -50484,7 +50521,7 @@
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -50496,7 +50533,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -50508,7 +50545,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -50520,7 +50557,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -50532,7 +50569,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -50544,7 +50581,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -50556,7 +50593,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -50568,7 +50605,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -50580,7 +50617,7 @@
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -50592,7 +50629,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -50604,7 +50641,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -50615,16 +50652,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -50635,16 +50672,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="102" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="E157" s="38" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -50656,7 +50693,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -50667,16 +50704,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="110" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -50688,7 +50725,7 @@
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
@@ -50700,7 +50737,7 @@
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
@@ -50712,7 +50749,7 @@
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
@@ -50724,7 +50761,7 @@
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
@@ -50736,7 +50773,7 @@
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
@@ -50748,7 +50785,7 @@
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
@@ -50760,7 +50797,7 @@
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
@@ -50772,7 +50809,7 @@
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
@@ -50784,7 +50821,7 @@
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
@@ -50796,7 +50833,7 @@
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
@@ -50808,7 +50845,7 @@
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
@@ -50820,7 +50857,7 @@
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F171" s="38"/>
       <c r="G171" s="38"/>
@@ -50832,7 +50869,7 @@
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
@@ -50844,7 +50881,7 @@
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
@@ -50856,7 +50893,7 @@
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
@@ -50868,7 +50905,7 @@
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
@@ -50880,7 +50917,7 @@
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
@@ -50892,7 +50929,7 @@
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
@@ -50904,7 +50941,7 @@
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38"/>
@@ -50916,7 +50953,7 @@
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F179" s="38"/>
       <c r="G179" s="38"/>
@@ -50928,7 +50965,7 @@
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F180" s="38"/>
       <c r="G180" s="38"/>
@@ -50940,7 +50977,7 @@
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
@@ -50952,7 +50989,7 @@
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
@@ -50964,7 +51001,7 @@
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
@@ -50976,7 +51013,7 @@
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
@@ -50988,7 +51025,7 @@
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
@@ -51000,7 +51037,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -51012,7 +51049,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -51024,7 +51061,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -51036,7 +51073,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -51048,7 +51085,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -51060,7 +51097,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -51072,7 +51109,7 @@
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
@@ -51084,7 +51121,7 @@
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F193" s="38"/>
       <c r="G193" s="38"/>
@@ -51096,7 +51133,7 @@
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
@@ -51108,7 +51145,7 @@
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
@@ -51120,7 +51157,7 @@
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
@@ -51132,7 +51169,7 @@
       <c r="C197" s="75"/>
       <c r="D197" s="75"/>
       <c r="E197" s="75" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F197" s="75"/>
       <c r="G197" s="75"/>
@@ -51140,7 +51177,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E198" s="38" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -51215,7 +51252,7 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
+          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000D000000}">
           <x14:formula1>
@@ -51227,13 +51264,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C111 C152 C150</xm:sqref>
+          <xm:sqref>C113 C150 C152 C111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000F000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C41:C43 C146</xm:sqref>
+          <xm:sqref>C107 C146 C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
           <x14:formula1>
@@ -51285,10 +51322,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51301,13 +51338,12 @@
     <col min="6" max="6" width="21.83203125" style="39" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="39" customWidth="1"/>
     <col min="8" max="8" width="21" style="39" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="59.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -51315,13 +51351,12 @@
       <c r="E1" s="118"/>
       <c r="F1" s="119"/>
       <c r="G1" s="120" t="s">
-        <v>480</v>
+        <v>1066</v>
       </c>
       <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" s="122"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -51347,73 +51382,64 @@
         <v>298</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -51425,79 +51451,72 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C6" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="E6" s="73" t="s">
         <v>301</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>302</v>
       </c>
       <c r="F6" s="73"/>
       <c r="G6" s="73" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C7" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>301</v>
-      </c>
       <c r="E7" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="73" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="73" t="s">
-        <v>446</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="J7" s="73"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="73" t="b">
@@ -51505,23 +51524,22 @@
       </c>
       <c r="H8" s="73"/>
       <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="73" t="b">
@@ -51529,23 +51547,22 @@
       </c>
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="73" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F10" s="73"/>
       <c r="G10" s="73" t="b">
@@ -51553,49 +51570,45 @@
       </c>
       <c r="H10" s="73"/>
       <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G11" s="73" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="73"/>
       <c r="I11" s="73" t="s">
-        <v>381</v>
-      </c>
-      <c r="J11" s="73" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D12" s="73"/>
       <c r="E12" s="73" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="73" t="b">
@@ -51603,21 +51616,20 @@
       </c>
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D13" s="73"/>
       <c r="E13" s="73" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="73" t="b">
@@ -51625,21 +51637,20 @@
       </c>
       <c r="H13" s="73"/>
       <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="73"/>
       <c r="E14" s="73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F14" s="73"/>
       <c r="G14" s="73" t="b">
@@ -51647,14 +51658,13 @@
       </c>
       <c r="H14" s="73"/>
       <c r="I14" s="73" t="s">
-        <v>381</v>
-      </c>
-      <c r="J14" s="73"/>
+        <v>378</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This field is equivalent to specifying a list of values to Defined Tags during its creation (in OCI Console)._x000a__x000a_For entering values of type &quot;list&quot; use ENUM::&lt;values in double quotes separated by comma&gt;._x000a__x000a_For type &quot;string&quot; use ENUM::&quot;&lt;value&gt;&quot;." sqref="H4:H500" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -51720,7 +51730,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -51728,7 +51738,7 @@
       <c r="E1" s="118"/>
       <c r="F1" s="119"/>
       <c r="G1" s="117" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
@@ -51747,7 +51757,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -51771,24 +51781,24 @@
         <v>18</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -51803,26 +51813,26 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>23</v>
@@ -51837,26 +51847,26 @@
         <v>23</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="K4" s="40"/>
       <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>23</v>
@@ -51871,7 +51881,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
@@ -51995,14 +52005,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
       <c r="F1" s="123" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G1" s="124"/>
       <c r="H1" s="124"/>
@@ -52015,63 +52025,63 @@
         <v>6</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G2" s="81" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -52079,19 +52089,19 @@
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -52421,7 +52431,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="B1" s="122"/>
     </row>
@@ -52484,7 +52494,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -52517,18 +52527,18 @@
         <v>34</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>35</v>
@@ -52537,42 +52547,42 @@
         <v>38</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>35</v>
@@ -52581,42 +52591,42 @@
         <v>38</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" s="39" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>35</v>
@@ -52625,7 +52635,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
@@ -52647,7 +52657,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>19</v>
@@ -52662,10 +52672,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -52673,10 +52683,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>35</v>
@@ -52695,13 +52705,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E11" s="73" t="s">
         <v>38</v>
